--- a/solow/basicsolow.xlsx
+++ b/solow/basicsolow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B9ABA-CBF0-3745-A200-31F56C0A3036}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C180982-5A8E-A74D-9C38-93EFBF7E1FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,6 @@
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Calculations!$C$10:$C$104</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Calculations!$C$9</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Calculations!$E$10:$E$104</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Calculations!$E$9</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Calculations!$C$10:$C$104</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Calculations!$C$9</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Calculations!$E$10:$E$104</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Calculations!$E$9</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Calculations!$E$10:$E$104</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Calculations!$E$9</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Calculations!$C$10:$C$104</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Calculations!$C$9</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Calculations!$E$10:$E$104</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Calculations!$E$9</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Calculations!$C$10:$C$104</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Calculations!$C$9</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -6219,7 +6201,7 @@
         <v>1.0783026342404925E-3</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" ref="F75:F104" si="6">D76-D75</f>
+        <f t="shared" ref="F75:F103" si="6">D76-D75</f>
         <v>2.0461880721519776E-2</v>
       </c>
       <c r="G75" s="3">

--- a/solow/basicsolow.xlsx
+++ b/solow/basicsolow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C180982-5A8E-A74D-9C38-93EFBF7E1FD7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2657DA4A-807D-7A47-9F55-0940E4649233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -117,6 +120,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4335,8 +4339,8 @@
   </sheetPr>
   <dimension ref="A1:K1008"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O38" sqref="O38"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/solow/basicsolow.xlsx
+++ b/solow/basicsolow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dietz/Dropbox/Project/StudyGuide/solow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2657DA4A-807D-7A47-9F55-0940E4649233}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C809B668-A30D-1D46-888A-6F99D26C9A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7680" yWindow="460" windowWidth="34640" windowHeight="25940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -32,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>Fill in parameter values and initial K/Y ratio (in blue). The steady state K/Y ratio is calculated (red).</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Scroll down to see all figures</t>
   </si>
@@ -53,9 +50,6 @@
   </si>
   <si>
     <t>gA</t>
-  </si>
-  <si>
-    <t>KY steady state</t>
   </si>
   <si>
     <t>Cap formation</t>
@@ -88,19 +82,28 @@
     <t>Period</t>
   </si>
   <si>
-    <t>K/Y</t>
-  </si>
-  <si>
     <t>ln y</t>
-  </si>
-  <si>
-    <t>g_ky</t>
   </si>
   <si>
     <t>g_y</t>
   </si>
   <si>
     <t>ln y BGP</t>
+  </si>
+  <si>
+    <t>Fill in parameter values and initial K/AL ratio (in blue). The steady state K/AL ratio is calculated (red).</t>
+  </si>
+  <si>
+    <t>K/AL steady state</t>
+  </si>
+  <si>
+    <t>K/Y steady state</t>
+  </si>
+  <si>
+    <t>K/AL</t>
+  </si>
+  <si>
+    <t>g_K</t>
   </si>
 </sst>
 </file>
@@ -123,7 +126,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +141,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEA9999"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -155,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -163,9 +172,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,289 +552,289 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>3.691920969181441</c:v>
+                  <c:v>3.7810398923962909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7985456195057843</c:v>
+                  <c:v>3.8667566850105315</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8868420700821082</c:v>
+                  <c:v>3.941131133939237</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.962643498039268</c:v>
+                  <c:v>4.007076854385609</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0293901002016117</c:v>
+                  <c:v>4.0665286653161319</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.0892818330141711</c:v>
+                  <c:v>4.1208349166627674</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1438110578651894</c:v>
+                  <c:v>4.1709717612440542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1940367635072278</c:v>
+                  <c:v>4.2176680399276956</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.2407375987762244</c:v>
+                  <c:v>4.2614819805552759</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.2845027981930199</c:v>
+                  <c:v>4.3028503761200874</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.3257889894955195</c:v>
+                  <c:v>4.3421212750749802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.3649571790841932</c:v>
+                  <c:v>4.3795763879261722</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.4022976766937401</c:v>
+                  <c:v>4.4154468555180681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4380473913601639</c:v>
+                  <c:v>4.4499246030955852</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.4724021397916758</c:v>
+                  <c:v>4.4831706820670307</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4.5055255994397383</c:v>
+                  <c:v>4.5153215087473813</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4.5375559474379035</c:v>
+                  <c:v>4.546493604892011</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.5686108681150728</c:v>
+                  <c:v>4.5767872514337951</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.598791387785143</c:v>
+                  <c:v>4.6062893409560299</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.6281848517606896</c:v>
+                  <c:v>4.6350756306842138</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.6568672640726376</c:v>
+                  <c:v>4.6632125409483276</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.684905146967461</c:v>
+                  <c:v>4.690758604804226</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4.7123570338649898</c:v>
+                  <c:v>4.7177656469305367</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4.7392746792502418</c:v>
+                  <c:v>4.7442797502632219</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4.7657040476029771</c:v>
+                  <c:v>4.7703420546263811</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.7916861281310235</c:v>
+                  <c:v>4.795989421222326</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4.8172576109176397</c:v>
+                  <c:v>4.8212549891461673</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4.8424514518785378</c:v>
+                  <c:v>4.8461686443276193</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.8672973478062431</c:v>
+                  <c:v>4.8707574169451959</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.8918221381746534</c:v>
+                  <c:v>4.8950458200317639</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.9160501468766498</c:v>
+                  <c:v>4.9190561394289061</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>4.9400034743827828</c:v>
+                  <c:v>4.9428086832586775</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.9637022487319058</c:v>
+                  <c:v>4.9663219975250668</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>4.9871648421447166</c:v>
+                  <c:v>4.9896130532308174</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.0104080587781379</c:v>
+                  <c:v>5.0126974094217669</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.0334472981311782</c:v>
+                  <c:v>5.0355893557932552</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.0562966978102848</c:v>
+                  <c:v>5.0583020378682031</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.0789692587188506</c:v>
+                  <c:v>5.0808475672513307</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.1014769552165644</c:v>
+                  <c:v>5.103237119053345</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.1238308323734865</c:v>
+                  <c:v>5.1254810182435167</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.1460410921004742</c:v>
+                  <c:v>5.1475888164135766</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.1681171696564094</c:v>
+                  <c:v>5.1695693602086443</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.190067801800943</c:v>
+                  <c:v>5.1914308524925943</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.2119010876699488</c:v>
+                  <c:v>5.2131809071585531</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.2336245432915458</c:v>
+                  <c:v>5.2348265983642435</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.2552451505277293</c:v>
+                  <c:v>5.2563745048620483</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.2767694011152759</c:v>
+                  <c:v>5.2778307500011294</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.2982033363860213</c:v>
+                  <c:v>5.2992010379007644</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3195525831675203</c:v>
+                  <c:v>5.3204906862277541</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3408223862982069</c:v>
+                  <c:v>5.3417046559543522</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.3620176381342484</c:v>
+                  <c:v>5.3628475784249972</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.3831429053768041</c:v>
+                  <c:v>5.3839237800189323</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.4042024535068762</c:v>
+                  <c:v>5.4049373046603808</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.4252002690793919</c:v>
+                  <c:v>5.4258919343974945</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.4461400800974751</c:v>
+                  <c:v>5.4467912082449228</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.4670253746615121</c:v>
+                  <c:v>5.467638439462144</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.4878594180647084</c:v>
+                  <c:v>5.4884367314198457</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.5086452684870455</c:v>
+                  <c:v>5.5091889921895074</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.5293857914223032</c:v>
+                  <c:v>5.5298979479762806</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.5500836729577854</c:v>
+                  <c:v>5.5505661555021693</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.5707414320132971</c:v>
+                  <c:v>5.5711960134350251</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.5913614316343816</c:v>
+                  <c:v>5.5917897729487596</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.6119458894247964</c:v>
+                  <c:v>5.6123495474913225</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.6324968871943097</c:v>
+                  <c:v>5.6328773218291426</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.653016379890091</c:v>
+                  <c:v>5.6533749604298258</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.6735062038730772</c:v>
+                  <c:v>5.673844215238776</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.693968084594597</c:v>
+                  <c:v>5.6942867328999833</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.7144036437230872</c:v>
+                  <c:v>5.7147040614663638</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.7348144057659978</c:v>
+                  <c:v>5.7350976566408063</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.7552018042276236</c:v>
+                  <c:v>5.7554688875851721</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.7755671873398668</c:v>
+                  <c:v>5.7758190423311344</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.79591182339946</c:v>
+                  <c:v>5.7961493328236395</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.8162369057421941</c:v>
+                  <c:v>5.8164608996250671</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.8365435573819342</c:v>
+                  <c:v>5.8367548163056524</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.8568328353397501</c:v>
+                  <c:v>5.8570320935435749</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.8771057346863351</c:v>
+                  <c:v>5.8772936829560596</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.897363192318835</c:v>
+                  <c:v>5.8975404806811103</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.9176060904914927</c:v>
+                  <c:v>5.9177733307277869</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.9378352601178559</c:v>
+                  <c:v>5.9379930281115367</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.9580514838608369</c:v>
+                  <c:v>5.9582003217897226</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.9782554990256305</c:v>
+                  <c:v>5.9783959174112784</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.9984480002692413</c:v>
+                  <c:v>5.9985804798933495</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>6.0186296421393415</c:v>
+                  <c:v>6.0187546358367374</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>6.0388010414541275</c:v>
+                  <c:v>6.038918975791109</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>6.0589627795340171</c:v>
+                  <c:v>6.0590740563800445</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>6.0791154042951208</c:v>
+                  <c:v>6.0792204022952907</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>6.0992594322137457</c:v>
+                  <c:v>6.0993585081688382</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>6.119395350170465</c:v>
+                  <c:v>6.1194888403308818</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>6.1395236171816547</c:v>
+                  <c:v>6.1396118384610414</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>6.1596446660258506</c:v>
+                  <c:v>6.1597279171398025</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>6.179758904771723</c:v>
+                  <c:v>6.1798374673065233</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>6.1998667182139968</c:v>
+                  <c:v>6.1999408576300183</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>6.2199684692231978</c:v>
+                  <c:v>6.2200384357972247</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>6.2400645000146859</c:v>
+                  <c:v>6.2401305297251302</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>6.2601551333420655</c:v>
+                  <c:v>6.2602174487007547</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1990,286 +2000,286 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="94"/>
                 <c:pt idx="0">
-                  <c:v>0.10662465032434332</c:v>
+                  <c:v>9.3470287562748264E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8296450576323959E-2</c:v>
+                  <c:v>7.9613785585764374E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.5801427957159717E-2</c:v>
+                  <c:v>6.9650776921146879E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6746602162343738E-2</c:v>
+                  <c:v>6.2163437757854115E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.9891732812559439E-2</c:v>
+                  <c:v>5.6344739977851874E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.4529224851018299E-2</c:v>
+                  <c:v>5.1702546572667679E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0225705642038321E-2</c:v>
+                  <c:v>4.7920129224200865E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6700835268996599E-2</c:v>
+                  <c:v>4.478462707982124E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3765199416795575E-2</c:v>
+                  <c:v>4.2147804325729003E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.1286191302499553E-2</c:v>
+                  <c:v>3.9903313397523094E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.9168189588673741E-2</c:v>
+                  <c:v>3.7972907992956537E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.734049760954683E-2</c:v>
+                  <c:v>3.6297755221883526E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.5749714666423849E-2</c:v>
+                  <c:v>3.4832777644953496E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4354748431511872E-2</c:v>
+                  <c:v>3.3542861876782695E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.3123459648062514E-2</c:v>
+                  <c:v>3.2400253760074174E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.2030347998165176E-2</c:v>
+                  <c:v>3.1382728907906554E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.1054920677169306E-2</c:v>
+                  <c:v>3.0472282412230146E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.0180519670070183E-2</c:v>
+                  <c:v>2.9654173804477692E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.9393463975546652E-2</c:v>
+                  <c:v>2.8916219887224794E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.8682412311948013E-2</c:v>
+                  <c:v>2.8248263578838161E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.8037882894823341E-2</c:v>
+                  <c:v>2.7641769751468023E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.7451886897528865E-2</c:v>
+                  <c:v>2.708951403367274E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.6917645385251987E-2</c:v>
+                  <c:v>2.6585340576258776E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.6429368352735239E-2</c:v>
+                  <c:v>2.6123971603688612E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.5982080528046403E-2</c:v>
+                  <c:v>2.5700856291119144E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5571482786616251E-2</c:v>
+                  <c:v>2.5312049816614723E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5193840960898051E-2</c:v>
+                  <c:v>2.4954115791113882E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.4845895927705364E-2</c:v>
+                  <c:v>2.462404696270824E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.4524790368410265E-2</c:v>
+                  <c:v>2.4319200325510364E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.4228008701996373E-2</c:v>
+                  <c:v>2.4037243671644781E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.3953327506132993E-2</c:v>
+                  <c:v>2.377611130032212E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.3698774349123042E-2</c:v>
+                  <c:v>2.353396710499589E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.3462593412810762E-2</c:v>
+                  <c:v>2.3309173643617606E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.3243216633421326E-2</c:v>
+                  <c:v>2.3100266090276305E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.3039239353040308E-2</c:v>
+                  <c:v>2.2905930192238581E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2849399679106597E-2</c:v>
+                  <c:v>2.2724983531437482E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2672560908565842E-2</c:v>
+                  <c:v>2.2556359526130946E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2507696497713781E-2</c:v>
+                  <c:v>2.2399093715877089E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.2353877156922053E-2</c:v>
+                  <c:v>2.2252311957943118E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.2210259726987758E-2</c:v>
+                  <c:v>2.2115220230872177E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.2076077555935214E-2</c:v>
+                  <c:v>2.1987095795030651E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.1950632144533522E-2</c:v>
+                  <c:v>2.1867279503479574E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.1833285869005792E-2</c:v>
+                  <c:v>2.1755169091705932E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.1723455621597054E-2</c:v>
+                  <c:v>2.165021330334585E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.1620607236183531E-2</c:v>
+                  <c:v>2.1551906732376801E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.1524250587546589E-2</c:v>
+                  <c:v>2.1459785281399388E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.143393527074533E-2</c:v>
+                  <c:v>2.1373422151394161E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.1349246781499076E-2</c:v>
+                  <c:v>2.1292424291374592E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.1269803130686604E-2</c:v>
+                  <c:v>2.1216429247178644E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.1195251836041429E-2</c:v>
+                  <c:v>2.1145102357657864E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.1125267242555701E-2</c:v>
+                  <c:v>2.1078134254063127E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.1059548130072159E-2</c:v>
+                  <c:v>2.1015238624753109E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.0997815572515677E-2</c:v>
+                  <c:v>2.0956150212678583E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.0939811018083176E-2</c:v>
+                  <c:v>2.0900623017594828E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0885294564036982E-2</c:v>
+                  <c:v>2.0848428678766222E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.0834043403196389E-2</c:v>
+                  <c:v>2.0799355017166146E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.0785850422337049E-2</c:v>
+                  <c:v>2.0753204718935332E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.0740522935257744E-2</c:v>
+                  <c:v>2.0709794144220611E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.0697881535482132E-2</c:v>
+                  <c:v>2.0668952247536475E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.0657759055511704E-2</c:v>
+                  <c:v>2.0630519597528034E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.0619999621084517E-2</c:v>
+                  <c:v>2.0594347485508441E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.0584457790414845E-2</c:v>
+                  <c:v>2.0560297113434236E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.0550997769513302E-2</c:v>
+                  <c:v>2.0528238853098481E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.0519492695781238E-2</c:v>
+                  <c:v>2.0498051569289459E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.0489823982986266E-2</c:v>
+                  <c:v>2.0469622000504097E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.0461880721519776E-2</c:v>
+                  <c:v>2.0442844191538023E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.0435559128490155E-2</c:v>
+                  <c:v>2.0417618972913325E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.0410762042910591E-2</c:v>
+                  <c:v>2.0393853482664624E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.038739846162585E-2</c:v>
+                  <c:v>2.0371460726493477E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.0365383112243229E-2</c:v>
+                  <c:v>2.0350359172731706E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.0344636059593135E-2</c:v>
+                  <c:v>2.0330472378931937E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.0325082342734113E-2</c:v>
+                  <c:v>2.0311728647237272E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.0306651639740103E-2</c:v>
+                  <c:v>2.029406070597586E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.0289277957815877E-2</c:v>
+                  <c:v>2.0277405415186193E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.0272899346585049E-2</c:v>
+                  <c:v>2.0261703494009454E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.0257457632499865E-2</c:v>
+                  <c:v>2.0246899268089199E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.0242898172657675E-2</c:v>
+                  <c:v>2.0232940435300384E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.022916962636323E-2</c:v>
+                  <c:v>2.0219777848291279E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.0216223742981043E-2</c:v>
+                  <c:v>2.0207365312465732E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.0204015164793532E-2</c:v>
+                  <c:v>2.0195659398161772E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.0192501243610828E-2</c:v>
+                  <c:v>2.0184619265897621E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.0181641870100187E-2</c:v>
+                  <c:v>2.0174206503658816E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.0171399314786065E-2</c:v>
+                  <c:v>2.0164384975292739E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.0161738079889524E-2</c:v>
+                  <c:v>2.0155120679159352E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.0152624761103688E-2</c:v>
+                  <c:v>2.0146381616261803E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.0144027918624907E-2</c:v>
+                  <c:v>2.0138137667147411E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.0135917956719318E-2</c:v>
+                  <c:v>2.0130360476930145E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.0128267011189749E-2</c:v>
+                  <c:v>2.0123023347840323E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.0121048844195855E-2</c:v>
+                  <c:v>2.0116101138756649E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.011423874587237E-2</c:v>
+                  <c:v>2.0109570171220576E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.0107813442273859E-2</c:v>
+                  <c:v>2.010340814147317E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.0101751009200974E-2</c:v>
+                  <c:v>2.0097594038091901E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.009603079148814E-2</c:v>
+                  <c:v>2.0092108064837917E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.0090633327379592E-2</c:v>
+                  <c:v>2.008693156835489E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,7 +2516,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> rate of K/Y</a:t>
+              <a:t> rate of K</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2556,7 +2566,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>g_ky</c:v>
+                  <c:v>g_K</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2595,286 +2605,286 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61199999999999999</c:v>
+                  <c:v>0.62245047927124708</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.71772800000000003</c:v>
+                  <c:v>0.74613924396802167</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.817535232</c:v>
+                  <c:v>0.86962722114925306</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.91175325900799997</c:v>
+                  <c:v>0.99184879852079344</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0006950765035521</c:v>
+                  <c:v>1.1120104207860702</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0846561522193532</c:v>
+                  <c:v>1.2295222946336108</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1639154076950695</c:v>
+                  <c:v>1.3439503658009655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.2387361448641456</c:v>
+                  <c:v>1.4549813945681864</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3093669207517535</c:v>
+                  <c:v>1.562396871983095</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3760423731896552</c:v>
+                  <c:v>1.6660531206310594</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4389840002910343</c:v>
+                  <c:v>1.7658658521259931</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.4984008962747366</c:v>
+                  <c:v>1.8617980168347672</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.5544904460833511</c:v>
+                  <c:v>1.9538501368465186</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.6074389811026835</c:v>
+                  <c:v>2.0420525452840028</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.6574223981609331</c:v>
+                  <c:v>2.126459111127093</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.7046067438639207</c:v>
+                  <c:v>2.2071421364461181</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7491487662075411</c:v>
+                  <c:v>2.2841881890354405</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.791196435299919</c:v>
+                  <c:v>2.3576946882990515</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.8308894349231235</c:v>
+                  <c:v>2.427767102525106</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8683596265674287</c:v>
+                  <c:v>2.4945166457573036</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.9037314874796527</c:v>
+                  <c:v>2.5580583852509089</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.9371225241807919</c:v>
+                  <c:v>2.6185096879882104</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.9686436628266677</c:v>
+                  <c:v>2.6759889483136621</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.9983996177083743</c:v>
+                  <c:v>2.7306145494178531</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.0264892391167053</c:v>
+                  <c:v>2.7825040198600868</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0530058417261698</c:v>
+                  <c:v>2.8317733530881783</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.0780375145895045</c:v>
+                  <c:v>2.8785364633728103</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.1016674137724922</c:v>
+                  <c:v>2.9229047560078234</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.1239740386012329</c:v>
+                  <c:v>2.964986793253106</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>2.1450314924395637</c:v>
+                  <c:v>3.0048880404783445</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>2.1649097288629484</c:v>
+                  <c:v>3.0427106794311878</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2.1836747840466235</c:v>
+                  <c:v>3.078553477601619</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>2.2013889961400124</c:v>
+                  <c:v>3.1125117043634409</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>2.2181112123561717</c:v>
+                  <c:v>3.1446770860055273</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2.2338969844642262</c:v>
+                  <c:v>3.1751377929690747</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2487987533342295</c:v>
+                  <c:v>3.2039784536220264</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2.2628660231475126</c:v>
+                  <c:v>3.2312801897601431</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2.276145525851252</c:v>
+                  <c:v>3.2571206697517816</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2.288681376403582</c:v>
+                  <c:v>3.2815741758616004</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>2.3005152193249816</c:v>
+                  <c:v>3.3047116828145673</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>2.3116863670427827</c:v>
+                  <c:v>3.3266009451102656</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>2.3222319304883867</c:v>
+                  <c:v>3.3473065909804656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>2.3321869423810369</c:v>
+                  <c:v>3.3668902212103071</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>2.3415844736076989</c:v>
+                  <c:v>3.3854105113234616</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>2.3504557430856674</c:v>
+                  <c:v>3.4029233158714018</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>2.35883022147287</c:v>
+                  <c:v>3.4194817737722016</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>2.3667357290703892</c:v>
+                  <c:v>3.4351364138201594</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.3741985282424474</c:v>
+                  <c:v>3.4499352596381812</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.3812434106608702</c:v>
+                  <c:v>3.4639239334738368</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.3878937796638615</c:v>
+                  <c:v>3.4771457583503982</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.3941717280026853</c:v>
+                  <c:v>3.4896418581785578</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.4000981112345348</c:v>
+                  <c:v>3.5014512555151511</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.4056926170054007</c:v>
+                  <c:v>3.5126109667239658</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.4109738304530981</c:v>
+                  <c:v>3.5231560943522577</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>2.4159592959477245</c:v>
+                  <c:v>3.5331199165863194</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>2.420665575374652</c:v>
+                  <c:v>3.5425339736915626</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>2.4251083031536718</c:v>
+                  <c:v>3.5514281513781403</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>2.4293022381770659</c:v>
+                  <c:v>3.5598307610630351</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>2.43326131283915</c:v>
+                  <c:v>3.5677686170245768</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>2.4369986793201575</c:v>
+                  <c:v>3.5752671104661746</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>2.4405267532782284</c:v>
+                  <c:v>3.5823502805232637</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>2.4438572550946476</c:v>
+                  <c:v>3.5890408822615556</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>2.4470012488093476</c:v>
+                  <c:v>3.5953604517261204</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>2.4499691788760245</c:v>
+                  <c:v>3.6013293681099317</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>2.452770904858967</c:v>
+                  <c:v>3.6069669131176849</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>2.455415734186865</c:v>
+                  <c:v>3.6122913276061652</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>2.4579124530724004</c:v>
+                  <c:v>3.6173198655864938</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>2.4602693557003459</c:v>
+                  <c:v>3.6220688456764041</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>2.4624942717811269</c:v>
+                  <c:v>3.6265537000924848</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>2.4645945925613835</c:v>
+                  <c:v>3.6307890212732565</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>2.4665772953779461</c:v>
+                  <c:v>3.6347886062241237</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>2.4684489668367808</c:v>
+                  <c:v>3.6385654986748293</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>2.4702158246939212</c:v>
+                  <c:v>3.6421320291390948</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>2.4718837385110612</c:v>
+                  <c:v>3.645499852964782</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>2.4734582491544415</c:v>
+                  <c:v>3.6486799864612212</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>2.4749445872017928</c:v>
+                  <c:v>3.6516828411883844</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>2.4763476903184922</c:v>
+                  <c:v>3.6545182564904017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>2.4776722196606564</c:v>
+                  <c:v>3.6571955303535773</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>2.4789225753596593</c:v>
+                  <c:v>3.6597234486665768</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>2.4801029111395185</c:v>
+                  <c:v>3.6621103129579256</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>2.4812171481157055</c:v>
+                  <c:v>3.664363966683307</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>2.4822689878212256</c:v>
+                  <c:v>3.6664918201325376</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>2.4832619245032368</c:v>
+                  <c:v>3.6685008740234157</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>2.4841992567310558</c:v>
+                  <c:v>3.6703977418469997</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>2.4850840983541165</c:v>
+                  <c:v>3.6721886710262508</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>2.4859193888462858</c:v>
+                  <c:v>3.6738795629473864</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.4867079030708941</c:v>
+                  <c:v>3.6754759919207523</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.4874522604989244</c:v>
+                  <c:v>3.6769832231255286</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.4881549339109847</c:v>
+                  <c:v>3.6784062295901752</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.4888182576119697</c:v>
+                  <c:v>3.6797497082581585</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.4894444351856992</c:v>
+                  <c:v>3.6810180951862166</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.4900355468153004</c:v>
+                  <c:v>3.6822155799202116</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.4905935561936436</c:v>
+                  <c:v>3.6833461190914862</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>2.4911203170467999</c:v>
+                  <c:v>3.6844134492745746</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2886,289 +2896,289 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="95"/>
                 <c:pt idx="0">
-                  <c:v>0.22399999999999998</c:v>
+                  <c:v>0.27490095854249424</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.17275816993464049</c:v>
+                  <c:v>0.2287126186192146</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.13905996700699988</c:v>
+                  <c:v>0.19550258973715628</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.11524644237962334</c:v>
+                  <c:v>0.17054479252618038</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.7550314865144441E-2</c:v>
+                  <c:v>0.15114913325950624</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.3902756880909951E-2</c:v>
+                  <c:v>0.13567515524222562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.3073162691735111E-2</c:v>
+                  <c:v>0.12306709741400289</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6.4283655559853325E-2</c:v>
+                  <c:v>0.11261542359940414</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.701841847470597E-2</c:v>
+                  <c:v>0.10382601441909668</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.092190079127789E-2</c:v>
+                  <c:v>9.6344377991743654E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.5741052984786451E-2</c:v>
+                  <c:v>8.9909693309855113E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1290866313791537E-2</c:v>
+                  <c:v>8.4325850739611755E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7432939307539326E-2</c:v>
+                  <c:v>7.944259214984499E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.4061666414701958E-2</c:v>
+                  <c:v>7.5142872922609003E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.1095063418184441E-2</c:v>
+                  <c:v>7.1334179200247247E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2.8468509750648494E-2</c:v>
+                  <c:v>6.7942429693021847E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.613038022051627E-2</c:v>
+                  <c:v>6.4907608040767159E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2.4038932482309299E-2</c:v>
+                  <c:v>6.2180579348258977E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>2.2160048357040371E-2</c:v>
+                  <c:v>5.9720732957415978E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>2.0465567679611631E-2</c:v>
+                  <c:v>5.749421192946054E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.8932040924695834E-2</c:v>
+                  <c:v>5.5472565838226753E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.7539782748115275E-2</c:v>
+                  <c:v>5.363171344557581E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.6272145025625535E-2</c:v>
+                  <c:v>5.1951135254195924E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.5114952209777601E-2</c:v>
+                  <c:v>5.0413238678962038E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.4056058237512206E-2</c:v>
+                  <c:v>4.9002854303730484E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3084995517184395E-2</c:v>
+                  <c:v>4.7706832722049078E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.2192694416440544E-2</c:v>
+                  <c:v>4.6513719303712939E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1371257264167146E-2</c:v>
+                  <c:v>4.541348987569413E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0613774892526908E-2</c:v>
+                  <c:v>4.4397334418367879E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.9141766592394757E-3</c:v>
+                  <c:v>4.3457478905482599E-2</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>9.2671070301055258E-3</c:v>
+                  <c:v>4.2587037667740399E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>8.6678233893524286E-3</c:v>
+                  <c:v>4.1779890349986304E-2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>8.1121109346522866E-3</c:v>
+                  <c:v>4.1030578812058682E-2</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.5962114126492848E-3</c:v>
+                  <c:v>4.0334220300921014E-2</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>7.1167631361847179E-3</c:v>
+                  <c:v>3.9686433974128604E-2</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>6.6707502510807825E-3</c:v>
+                  <c:v>3.9083278438124938E-2</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>6.255459628135244E-3</c:v>
+                  <c:v>3.8521198420436484E-2</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.8684440739749585E-3</c:v>
+                  <c:v>3.7996979052923624E-2</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.5074908040607939E-3</c:v>
+                  <c:v>3.7507706526477058E-2</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.1705943183734159E-3</c:v>
+                  <c:v>3.7050734102907254E-2</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>4.8559329770827926E-3</c:v>
+                  <c:v>3.6623652650102173E-2</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>4.5618486988330247E-3</c:v>
+                  <c:v>3.6224265011598575E-2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>4.2868293050111958E-3</c:v>
+                  <c:v>3.585056363901977E-2</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>4.0294931147618739E-3</c:v>
+                  <c:v>3.5500711011152833E-2</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3.7885754615979415E-3</c:v>
+                  <c:v>3.5173022441256002E-2</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3.5629168563746927E-3</c:v>
+                  <c:v>3.4865950937997964E-2</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>3.3514525655784721E-3</c:v>
+                  <c:v>3.4578073837980533E-2</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>3.1532034102470128E-3</c:v>
+                  <c:v>3.4308080971248642E-2</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>2.9672676208918709E-3</c:v>
+                  <c:v>3.4054764157262149E-2</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>2.7928136087295567E-3</c:v>
+                  <c:v>3.3817007858859549E-2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>2.6290735342957674E-3</c:v>
+                  <c:v>3.3593780846877086E-2</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>2.4753375718765389E-3</c:v>
+                  <c:v>3.3384128749177025E-2</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>2.3309487827513952E-3</c:v>
+                  <c:v>3.3187167375595281E-2</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>2.1952985224985193E-3</c:v>
+                  <c:v>3.300207672531609E-2</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>2.0678223179592089E-3</c:v>
+                  <c:v>3.282809559588741E-2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.9479961582222246E-3</c:v>
+                  <c:v>3.2664516723887149E-2</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.8353331514337212E-3</c:v>
+                  <c:v>3.2510682396451107E-2</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.7293805055800901E-3</c:v>
+                  <c:v>3.2365980480735371E-2</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.6297167968095925E-3</c:v>
+                  <c:v>3.2229840825121578E-2</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.5359494934996513E-3</c:v>
+                  <c:v>3.2101731991760113E-2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.4477127082626927E-3</c:v>
+                  <c:v>3.1981158285028136E-2</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3646651535147132E-3</c:v>
+                  <c:v>3.1867657044780784E-2</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.2864882791928725E-3</c:v>
+                  <c:v>3.176079617699494E-2</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.2128845737698971E-3</c:v>
+                  <c:v>3.1660171897631526E-2</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.1435760119349687E-3</c:v>
+                  <c:v>3.1565406668346993E-2</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.0783026342404925E-3</c:v>
+                  <c:v>3.1476147305126739E-2</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.016821245695232E-3</c:v>
+                  <c:v>3.1392063243044416E-2</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>9.5890422175104332E-4</c:v>
+                  <c:v>3.1312844942215409E-2</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>9.0433841141238514E-4</c:v>
+                  <c:v>3.123820242164492E-2</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>8.529241283220275E-4</c:v>
+                  <c:v>3.1167863909105684E-2</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>8.0447422166173303E-4</c:v>
+                  <c:v>3.1101574596439793E-2</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>7.588132195744669E-4</c:v>
+                  <c:v>3.1039095490790911E-2</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>7.157765385785651E-4</c:v>
+                  <c:v>3.098020235325287E-2</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>6.752097531182626E-4</c:v>
+                  <c:v>3.0924684717287307E-2</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>6.3696791999165317E-4</c:v>
+                  <c:v>3.087234498003151E-2</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>6.0091495292446408E-4</c:v>
+                  <c:v>3.0822997560297327E-2</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.6692304302698041E-4</c:v>
+                  <c:v>3.0776468117667946E-2</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.3487212128685028E-4</c:v>
+                  <c:v>3.07325928276376E-2</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.046493596213052E-4</c:v>
+                  <c:v>3.0691217708219101E-2</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>4.7614870734226806E-4</c:v>
+                  <c:v>3.0652197993872574E-2</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>4.4927046018224267E-4</c:v>
+                  <c:v>3.0615397552992071E-2</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>4.2392085929250103E-4</c:v>
+                  <c:v>3.0580688345529392E-2</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>4.000117178609626E-4</c:v>
+                  <c:v>3.0547949917642467E-2</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>3.7746007320844672E-4</c:v>
+                  <c:v>3.0517068930531174E-2</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>3.5618786241215102E-4</c:v>
+                  <c:v>3.0487938720872673E-2</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>3.3612161967584307E-4</c:v>
+                  <c:v>3.0460458890491371E-2</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>3.1719219382006936E-4</c:v>
+                  <c:v>3.0434534923100484E-2</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>2.9933448440434287E-4</c:v>
+                  <c:v>3.0410077826134405E-2</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>2.8248719511878863E-4</c:v>
+                  <c:v>3.0387003795855502E-2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>2.665926031954148E-4</c:v>
+                  <c:v>3.0365233904068589E-2</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>2.515963436922579E-4</c:v>
+                  <c:v>3.0344693804910561E-2</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>2.3744720759623792E-4</c:v>
+                  <c:v>3.0325313460306341E-2</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>2.2409695277517282E-4</c:v>
+                  <c:v>3.0307026882793062E-2</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>2.1150012688581511E-4</c:v>
+                  <c:v>3.0289771894516301E-2</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.9961390141472763E-4</c:v>
+                  <c:v>3.0273489901294109E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3233,7 +3243,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>K/Y ratio</a:t>
+                  <a:t>K/AL ratio</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3350,7 +3360,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>g_KY</a:t>
+                  <a:t>g_K</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4340,14 +4350,14 @@
   <dimension ref="A1:K1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -4355,7 +4365,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1"/>
       <c r="J1" s="1"/>
@@ -4373,74 +4383,81 @@
     </row>
     <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="5">
         <v>0.3</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="H3" s="4">
         <v>0.02</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="8">
-        <f>$D$4/($D$5+$H$3+$H$4)</f>
-        <v>2.5</v>
+      <c r="J3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="9">
+        <f>($D$4/($D$5+$H$3+$H$4))^(1/(1-$D$3))</f>
+        <v>3.7024203699314673</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="5">
         <v>0.2</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4" s="4">
         <v>0.01</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="10">
+        <f>$D$4/($D$5+$H$3+$H$4)</f>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="5">
         <v>0.05</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="4">
         <v>54</v>
@@ -4457,7 +4474,7 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="5">
@@ -4480,22 +4497,22 @@
     <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="G9" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4507,19 +4524,19 @@
         <v>0.5</v>
       </c>
       <c r="D10" s="3">
-        <f t="shared" ref="D10:D104" si="0">($D$3/(1-$D$3))*LN(C10) + LN($H$5) + $H$3*B10</f>
-        <v>3.691920969181441</v>
+        <f>$D$3*LN(C10) + LN($H$5) + $H$3*B10</f>
+        <v>3.7810398923962909</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" ref="E10:E104" si="1">(1-$D$3)*($D$4/C10-$D$5-$H$3-$H$4)</f>
-        <v>0.22399999999999998</v>
+        <f>$D$4*(1/C10)^(1-$D$3) - $D$5</f>
+        <v>0.27490095854249424</v>
       </c>
       <c r="F10" s="3">
-        <f>D11-D10</f>
-        <v>0.10662465032434332</v>
+        <f>$D$3*(E10-$H$3-$H$4)+$H$3</f>
+        <v>9.3470287562748264E-2</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" ref="G10:G104" si="2">($D$3/(1-$D$3))*LN($K$3) + LN($H$5) + $H$3*B10</f>
+        <f>($D$3)*LN($K$3) + LN($H$5) + $H$3*B10</f>
         <v>4.3816800745103412</v>
       </c>
     </row>
@@ -4529,2438 +4546,2438 @@
         <v>1</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:C104" si="3">C10*(1+E10)</f>
-        <v>0.61199999999999999</v>
+        <f>C10*(1+E10-$H$3-$H$4)</f>
+        <v>0.62245047927124708</v>
       </c>
       <c r="D11" s="3">
-        <f t="shared" si="0"/>
-        <v>3.7985456195057843</v>
+        <f t="shared" ref="D11:D74" si="0">$D$3*LN(C11) + LN($H$5) + $H$3*B11</f>
+        <v>3.8667566850105315</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="1"/>
-        <v>0.17275816993464049</v>
+        <f t="shared" ref="E11:E74" si="1">$D$4*(1/C11)^(1-$D$3) - $D$5</f>
+        <v>0.2287126186192146</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" ref="F11:F74" si="4">D12-D11</f>
-        <v>8.8296450576323959E-2</v>
+        <f t="shared" ref="F11:F74" si="2">$D$3*(E11-$H$3-$H$4)+$H$3</f>
+        <v>7.9613785585764374E-2</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G11:G74" si="3">($D$3)*LN($K$3) + LN($H$5) + $H$3*B11</f>
         <v>4.4016800745103408</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="9">
-        <f t="shared" ref="B12:B104" si="5">B11+1</f>
+      <c r="B12" s="7">
+        <f t="shared" ref="B12:B104" si="4">B11+1</f>
         <v>2</v>
       </c>
       <c r="C12" s="3">
-        <f t="shared" si="3"/>
-        <v>0.71772800000000003</v>
+        <f t="shared" ref="C12:C75" si="5">C11*(1+E11-$H$3-$H$4)</f>
+        <v>0.74613924396802167</v>
       </c>
       <c r="D12" s="3">
         <f t="shared" si="0"/>
-        <v>3.8868420700821082</v>
+        <v>3.941131133939237</v>
       </c>
       <c r="E12" s="3">
         <f t="shared" si="1"/>
-        <v>0.13905996700699988</v>
+        <v>0.19550258973715628</v>
       </c>
       <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>6.9650776921146879E-2</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4216800745103413</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="7">
         <f t="shared" si="4"/>
-        <v>7.5801427957159717E-2</v>
-      </c>
-      <c r="G12" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4216800745103413</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="9">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
         <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="C13" s="3">
-        <f t="shared" si="3"/>
-        <v>0.817535232</v>
+        <v>0.86962722114925306</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="0"/>
-        <v>3.962643498039268</v>
+        <v>4.007076854385609</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="1"/>
-        <v>0.11524644237962334</v>
+        <v>0.17054479252618038</v>
       </c>
       <c r="F13" s="3">
+        <f t="shared" si="2"/>
+        <v>6.2163437757854115E-2</v>
+      </c>
+      <c r="G13" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4416800745103409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="7">
         <f t="shared" si="4"/>
-        <v>6.6746602162343738E-2</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4416800745103409</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="9">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="C14" s="3">
-        <f t="shared" si="3"/>
-        <v>0.91175325900799997</v>
+        <v>0.99184879852079344</v>
       </c>
       <c r="D14" s="3">
         <f t="shared" si="0"/>
-        <v>4.0293901002016117</v>
+        <v>4.0665286653161319</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>9.7550314865144441E-2</v>
+        <v>0.15114913325950624</v>
       </c>
       <c r="F14" s="3">
+        <f t="shared" si="2"/>
+        <v>5.6344739977851874E-2</v>
+      </c>
+      <c r="G14" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4616800745103413</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="7">
         <f t="shared" si="4"/>
-        <v>5.9891732812559439E-2</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4616800745103413</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="9">
+        <v>5</v>
+      </c>
+      <c r="C15" s="3">
         <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="C15" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0006950765035521</v>
+        <v>1.1120104207860702</v>
       </c>
       <c r="D15" s="3">
         <f t="shared" si="0"/>
-        <v>4.0892818330141711</v>
+        <v>4.1208349166627674</v>
       </c>
       <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>8.3902756880909951E-2</v>
+        <v>0.13567515524222562</v>
       </c>
       <c r="F15" s="3">
+        <f t="shared" si="2"/>
+        <v>5.1702546572667679E-2</v>
+      </c>
+      <c r="G15" s="3">
+        <f t="shared" si="3"/>
+        <v>4.4816800745103409</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="7">
         <f t="shared" si="4"/>
-        <v>5.4529224851018299E-2</v>
-      </c>
-      <c r="G15" s="3">
-        <f t="shared" si="2"/>
-        <v>4.4816800745103409</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="9">
+        <v>6</v>
+      </c>
+      <c r="C16" s="3">
         <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
-      <c r="C16" s="3">
-        <f t="shared" si="3"/>
-        <v>1.0846561522193532</v>
+        <v>1.2295222946336108</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" si="0"/>
-        <v>4.1438110578651894</v>
+        <v>4.1709717612440542</v>
       </c>
       <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>7.3073162691735111E-2</v>
+        <v>0.12306709741400289</v>
       </c>
       <c r="F16" s="3">
+        <f t="shared" si="2"/>
+        <v>4.7920129224200865E-2</v>
+      </c>
+      <c r="G16" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5016800745103414</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="7">
         <f t="shared" si="4"/>
-        <v>5.0225705642038321E-2</v>
-      </c>
-      <c r="G16" s="3">
-        <f t="shared" si="2"/>
-        <v>4.5016800745103414</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="9">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3">
         <f t="shared" si="5"/>
-        <v>7</v>
-      </c>
-      <c r="C17" s="3">
-        <f t="shared" si="3"/>
-        <v>1.1639154076950695</v>
+        <v>1.3439503658009655</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="0"/>
-        <v>4.1940367635072278</v>
+        <v>4.2176680399276956</v>
       </c>
       <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>6.4283655559853325E-2</v>
+        <v>0.11261542359940414</v>
       </c>
       <c r="F17" s="3">
+        <f t="shared" si="2"/>
+        <v>4.478462707982124E-2</v>
+      </c>
+      <c r="G17" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5216800745103409</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="7">
         <f t="shared" si="4"/>
-        <v>4.6700835268996599E-2</v>
-      </c>
-      <c r="G17" s="3">
-        <f t="shared" si="2"/>
-        <v>4.5216800745103409</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="9">
+        <v>8</v>
+      </c>
+      <c r="C18" s="3">
         <f t="shared" si="5"/>
-        <v>8</v>
-      </c>
-      <c r="C18" s="3">
-        <f t="shared" si="3"/>
-        <v>1.2387361448641456</v>
+        <v>1.4549813945681864</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="0"/>
-        <v>4.2407375987762244</v>
+        <v>4.2614819805552759</v>
       </c>
       <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>5.701841847470597E-2</v>
+        <v>0.10382601441909668</v>
       </c>
       <c r="F18" s="3">
+        <f t="shared" si="2"/>
+        <v>4.2147804325729003E-2</v>
+      </c>
+      <c r="G18" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5416800745103414</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="7">
         <f t="shared" si="4"/>
-        <v>4.3765199416795575E-2</v>
-      </c>
-      <c r="G18" s="3">
-        <f t="shared" si="2"/>
-        <v>4.5416800745103414</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="9">
+        <v>9</v>
+      </c>
+      <c r="C19" s="3">
         <f t="shared" si="5"/>
-        <v>9</v>
-      </c>
-      <c r="C19" s="3">
-        <f t="shared" si="3"/>
-        <v>1.3093669207517535</v>
+        <v>1.562396871983095</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="0"/>
-        <v>4.2845027981930199</v>
+        <v>4.3028503761200874</v>
       </c>
       <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>5.092190079127789E-2</v>
+        <v>9.6344377991743654E-2</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="2"/>
+        <v>3.9903313397523094E-2</v>
+      </c>
+      <c r="G19" s="3">
+        <f t="shared" si="3"/>
+        <v>4.561680074510341</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="7">
         <f t="shared" si="4"/>
-        <v>4.1286191302499553E-2</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="2"/>
-        <v>4.561680074510341</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="9">
+        <v>10</v>
+      </c>
+      <c r="C20" s="3">
         <f t="shared" si="5"/>
-        <v>10</v>
-      </c>
-      <c r="C20" s="3">
-        <f t="shared" si="3"/>
-        <v>1.3760423731896552</v>
+        <v>1.6660531206310594</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="0"/>
-        <v>4.3257889894955195</v>
+        <v>4.3421212750749802</v>
       </c>
       <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>4.5741052984786451E-2</v>
+        <v>8.9909693309855113E-2</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="2"/>
+        <v>3.7972907992956537E-2</v>
+      </c>
+      <c r="G20" s="3">
+        <f t="shared" si="3"/>
+        <v>4.5816800745103414</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="7">
         <f t="shared" si="4"/>
-        <v>3.9168189588673741E-2</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="2"/>
-        <v>4.5816800745103414</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="9">
+        <v>11</v>
+      </c>
+      <c r="C21" s="3">
         <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
-      <c r="C21" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4389840002910343</v>
+        <v>1.7658658521259931</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="0"/>
-        <v>4.3649571790841932</v>
+        <v>4.3795763879261722</v>
       </c>
       <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>4.1290866313791537E-2</v>
+        <v>8.4325850739611755E-2</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="2"/>
+        <v>3.6297755221883526E-2</v>
+      </c>
+      <c r="G21" s="3">
+        <f t="shared" si="3"/>
+        <v>4.601680074510341</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="7">
         <f t="shared" si="4"/>
-        <v>3.734049760954683E-2</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="2"/>
-        <v>4.601680074510341</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="9">
+        <v>12</v>
+      </c>
+      <c r="C22" s="3">
         <f t="shared" si="5"/>
-        <v>12</v>
-      </c>
-      <c r="C22" s="3">
-        <f t="shared" si="3"/>
-        <v>1.4984008962747366</v>
+        <v>1.8617980168347672</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="0"/>
-        <v>4.4022976766937401</v>
+        <v>4.4154468555180681</v>
       </c>
       <c r="E22" s="3">
         <f t="shared" si="1"/>
-        <v>3.7432939307539326E-2</v>
+        <v>7.944259214984499E-2</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="2"/>
+        <v>3.4832777644953496E-2</v>
+      </c>
+      <c r="G22" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6216800745103415</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="7">
         <f t="shared" si="4"/>
-        <v>3.5749714666423849E-2</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6216800745103415</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="9">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3">
         <f t="shared" si="5"/>
-        <v>13</v>
-      </c>
-      <c r="C23" s="3">
-        <f t="shared" si="3"/>
-        <v>1.5544904460833511</v>
+        <v>1.9538501368465186</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="0"/>
-        <v>4.4380473913601639</v>
+        <v>4.4499246030955852</v>
       </c>
       <c r="E23" s="3">
         <f t="shared" si="1"/>
-        <v>3.4061666414701958E-2</v>
+        <v>7.5142872922609003E-2</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="2"/>
+        <v>3.3542861876782695E-2</v>
+      </c>
+      <c r="G23" s="3">
+        <f t="shared" si="3"/>
+        <v>4.641680074510341</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="7">
         <f t="shared" si="4"/>
-        <v>3.4354748431511872E-2</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="2"/>
-        <v>4.641680074510341</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="9">
+        <v>14</v>
+      </c>
+      <c r="C24" s="3">
         <f t="shared" si="5"/>
-        <v>14</v>
-      </c>
-      <c r="C24" s="3">
-        <f t="shared" si="3"/>
-        <v>1.6074389811026835</v>
+        <v>2.0420525452840028</v>
       </c>
       <c r="D24" s="3">
         <f t="shared" si="0"/>
-        <v>4.4724021397916758</v>
+        <v>4.4831706820670307</v>
       </c>
       <c r="E24" s="3">
         <f t="shared" si="1"/>
-        <v>3.1095063418184441E-2</v>
+        <v>7.1334179200247247E-2</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="2"/>
+        <v>3.2400253760074174E-2</v>
+      </c>
+      <c r="G24" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6616800745103415</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="7">
         <f t="shared" si="4"/>
-        <v>3.3123459648062514E-2</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6616800745103415</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="9">
+        <v>15</v>
+      </c>
+      <c r="C25" s="3">
         <f t="shared" si="5"/>
-        <v>15</v>
-      </c>
-      <c r="C25" s="3">
-        <f t="shared" si="3"/>
-        <v>1.6574223981609331</v>
+        <v>2.126459111127093</v>
       </c>
       <c r="D25" s="3">
         <f t="shared" si="0"/>
-        <v>4.5055255994397383</v>
+        <v>4.5153215087473813</v>
       </c>
       <c r="E25" s="3">
         <f t="shared" si="1"/>
-        <v>2.8468509750648494E-2</v>
+        <v>6.7942429693021847E-2</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="2"/>
+        <v>3.1382728907906554E-2</v>
+      </c>
+      <c r="G25" s="3">
+        <f t="shared" si="3"/>
+        <v>4.6816800745103411</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="7">
         <f t="shared" si="4"/>
-        <v>3.2030347998165176E-2</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="2"/>
-        <v>4.6816800745103411</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="9">
+        <v>16</v>
+      </c>
+      <c r="C26" s="3">
         <f t="shared" si="5"/>
-        <v>16</v>
-      </c>
-      <c r="C26" s="3">
-        <f t="shared" si="3"/>
-        <v>1.7046067438639207</v>
+        <v>2.2071421364461181</v>
       </c>
       <c r="D26" s="3">
         <f t="shared" si="0"/>
-        <v>4.5375559474379035</v>
+        <v>4.546493604892011</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="1"/>
-        <v>2.613038022051627E-2</v>
+        <v>6.4907608040767159E-2</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="2"/>
+        <v>3.0472282412230146E-2</v>
+      </c>
+      <c r="G26" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7016800745103415</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="7">
         <f t="shared" si="4"/>
-        <v>3.1054920677169306E-2</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="2"/>
-        <v>4.7016800745103415</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="9">
+        <v>17</v>
+      </c>
+      <c r="C27" s="3">
         <f t="shared" si="5"/>
-        <v>17</v>
-      </c>
-      <c r="C27" s="3">
-        <f t="shared" si="3"/>
-        <v>1.7491487662075411</v>
+        <v>2.2841881890354405</v>
       </c>
       <c r="D27" s="3">
         <f t="shared" si="0"/>
-        <v>4.5686108681150728</v>
+        <v>4.5767872514337951</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="1"/>
-        <v>2.4038932482309299E-2</v>
+        <v>6.2180579348258977E-2</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="2"/>
+        <v>2.9654173804477692E-2</v>
+      </c>
+      <c r="G27" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7216800745103411</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="7">
         <f t="shared" si="4"/>
-        <v>3.0180519670070183E-2</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="2"/>
-        <v>4.7216800745103411</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="9">
+        <v>18</v>
+      </c>
+      <c r="C28" s="3">
         <f t="shared" si="5"/>
-        <v>18</v>
-      </c>
-      <c r="C28" s="3">
-        <f t="shared" si="3"/>
-        <v>1.791196435299919</v>
+        <v>2.3576946882990515</v>
       </c>
       <c r="D28" s="3">
         <f t="shared" si="0"/>
-        <v>4.598791387785143</v>
+        <v>4.6062893409560299</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="1"/>
-        <v>2.2160048357040371E-2</v>
+        <v>5.9720732957415978E-2</v>
       </c>
       <c r="F28" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8916219887224794E-2</v>
+      </c>
+      <c r="G28" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7416800745103416</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="7">
         <f t="shared" si="4"/>
-        <v>2.9393463975546652E-2</v>
-      </c>
-      <c r="G28" s="3">
-        <f t="shared" si="2"/>
-        <v>4.7416800745103416</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="9">
+        <v>19</v>
+      </c>
+      <c r="C29" s="3">
         <f t="shared" si="5"/>
-        <v>19</v>
-      </c>
-      <c r="C29" s="3">
-        <f t="shared" si="3"/>
-        <v>1.8308894349231235</v>
+        <v>2.427767102525106</v>
       </c>
       <c r="D29" s="3">
         <f t="shared" si="0"/>
-        <v>4.6281848517606896</v>
+        <v>4.6350756306842138</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="1"/>
-        <v>2.0465567679611631E-2</v>
+        <v>5.749421192946054E-2</v>
       </c>
       <c r="F29" s="3">
+        <f t="shared" si="2"/>
+        <v>2.8248263578838161E-2</v>
+      </c>
+      <c r="G29" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7616800745103411</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="7">
         <f t="shared" si="4"/>
-        <v>2.8682412311948013E-2</v>
-      </c>
-      <c r="G29" s="3">
-        <f t="shared" si="2"/>
-        <v>4.7616800745103411</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="9">
+        <v>20</v>
+      </c>
+      <c r="C30" s="3">
         <f t="shared" si="5"/>
-        <v>20</v>
-      </c>
-      <c r="C30" s="3">
-        <f t="shared" si="3"/>
-        <v>1.8683596265674287</v>
+        <v>2.4945166457573036</v>
       </c>
       <c r="D30" s="3">
         <f t="shared" si="0"/>
-        <v>4.6568672640726376</v>
+        <v>4.6632125409483276</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="1"/>
-        <v>1.8932040924695834E-2</v>
+        <v>5.5472565838226753E-2</v>
       </c>
       <c r="F30" s="3">
+        <f t="shared" si="2"/>
+        <v>2.7641769751468023E-2</v>
+      </c>
+      <c r="G30" s="3">
+        <f t="shared" si="3"/>
+        <v>4.7816800745103416</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="7">
         <f t="shared" si="4"/>
-        <v>2.8037882894823341E-2</v>
-      </c>
-      <c r="G30" s="3">
-        <f t="shared" si="2"/>
-        <v>4.7816800745103416</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="9">
+        <v>21</v>
+      </c>
+      <c r="C31" s="3">
         <f t="shared" si="5"/>
-        <v>21</v>
-      </c>
-      <c r="C31" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9037314874796527</v>
+        <v>2.5580583852509089</v>
       </c>
       <c r="D31" s="3">
         <f t="shared" si="0"/>
-        <v>4.684905146967461</v>
+        <v>4.690758604804226</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="1"/>
-        <v>1.7539782748115275E-2</v>
+        <v>5.363171344557581E-2</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="2"/>
+        <v>2.708951403367274E-2</v>
+      </c>
+      <c r="G31" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8016800745103412</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="7">
         <f t="shared" si="4"/>
-        <v>2.7451886897528865E-2</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8016800745103412</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="9">
+        <v>22</v>
+      </c>
+      <c r="C32" s="3">
         <f t="shared" si="5"/>
-        <v>22</v>
-      </c>
-      <c r="C32" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9371225241807919</v>
+        <v>2.6185096879882104</v>
       </c>
       <c r="D32" s="3">
         <f t="shared" si="0"/>
-        <v>4.7123570338649898</v>
+        <v>4.7177656469305367</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="1"/>
-        <v>1.6272145025625535E-2</v>
+        <v>5.1951135254195924E-2</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6585340576258776E-2</v>
+      </c>
+      <c r="G32" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8216800745103416</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="7">
         <f t="shared" si="4"/>
-        <v>2.6917645385251987E-2</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8216800745103416</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="9">
+        <v>23</v>
+      </c>
+      <c r="C33" s="3">
         <f t="shared" si="5"/>
-        <v>23</v>
-      </c>
-      <c r="C33" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9686436628266677</v>
+        <v>2.6759889483136621</v>
       </c>
       <c r="D33" s="3">
         <f t="shared" si="0"/>
-        <v>4.7392746792502418</v>
+        <v>4.7442797502632219</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="1"/>
-        <v>1.5114952209777601E-2</v>
+        <v>5.0413238678962038E-2</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="2"/>
+        <v>2.6123971603688612E-2</v>
+      </c>
+      <c r="G33" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8416800745103412</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="7">
         <f t="shared" si="4"/>
-        <v>2.6429368352735239E-2</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8416800745103412</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="9">
+        <v>24</v>
+      </c>
+      <c r="C34" s="3">
         <f t="shared" si="5"/>
-        <v>24</v>
-      </c>
-      <c r="C34" s="3">
-        <f t="shared" si="3"/>
-        <v>1.9983996177083743</v>
+        <v>2.7306145494178531</v>
       </c>
       <c r="D34" s="3">
         <f t="shared" si="0"/>
-        <v>4.7657040476029771</v>
+        <v>4.7703420546263811</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="1"/>
-        <v>1.4056058237512206E-2</v>
+        <v>4.9002854303730484E-2</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5700856291119144E-2</v>
+      </c>
+      <c r="G34" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8616800745103408</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="7">
         <f t="shared" si="4"/>
-        <v>2.5982080528046403E-2</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8616800745103408</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="9">
+        <v>25</v>
+      </c>
+      <c r="C35" s="3">
         <f t="shared" si="5"/>
-        <v>25</v>
-      </c>
-      <c r="C35" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0264892391167053</v>
+        <v>2.7825040198600868</v>
       </c>
       <c r="D35" s="3">
         <f t="shared" si="0"/>
-        <v>4.7916861281310235</v>
+        <v>4.795989421222326</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="1"/>
-        <v>1.3084995517184395E-2</v>
+        <v>4.7706832722049078E-2</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="2"/>
+        <v>2.5312049816614723E-2</v>
+      </c>
+      <c r="G35" s="3">
+        <f t="shared" si="3"/>
+        <v>4.8816800745103412</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="7">
         <f t="shared" si="4"/>
-        <v>2.5571482786616251E-2</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="2"/>
-        <v>4.8816800745103412</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="9">
+        <v>26</v>
+      </c>
+      <c r="C36" s="3">
         <f t="shared" si="5"/>
-        <v>26</v>
-      </c>
-      <c r="C36" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0530058417261698</v>
+        <v>2.8317733530881783</v>
       </c>
       <c r="D36" s="3">
         <f t="shared" si="0"/>
-        <v>4.8172576109176397</v>
+        <v>4.8212549891461673</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="1"/>
-        <v>1.2192694416440544E-2</v>
+        <v>4.6513719303712939E-2</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4954115791113882E-2</v>
+      </c>
+      <c r="G36" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9016800745103417</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="7">
         <f t="shared" si="4"/>
-        <v>2.5193840960898051E-2</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9016800745103417</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="9">
+        <v>27</v>
+      </c>
+      <c r="C37" s="3">
         <f t="shared" si="5"/>
-        <v>27</v>
-      </c>
-      <c r="C37" s="3">
-        <f t="shared" si="3"/>
-        <v>2.0780375145895045</v>
+        <v>2.8785364633728103</v>
       </c>
       <c r="D37" s="3">
         <f t="shared" si="0"/>
-        <v>4.8424514518785378</v>
+        <v>4.8461686443276193</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="1"/>
-        <v>1.1371257264167146E-2</v>
+        <v>4.541348987569413E-2</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="2"/>
+        <v>2.462404696270824E-2</v>
+      </c>
+      <c r="G37" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9216800745103413</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="7">
         <f t="shared" si="4"/>
-        <v>2.4845895927705364E-2</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9216800745103413</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="9">
+        <v>28</v>
+      </c>
+      <c r="C38" s="3">
         <f t="shared" si="5"/>
-        <v>28</v>
-      </c>
-      <c r="C38" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1016674137724922</v>
+        <v>2.9229047560078234</v>
       </c>
       <c r="D38" s="3">
         <f t="shared" si="0"/>
-        <v>4.8672973478062431</v>
+        <v>4.8707574169451959</v>
       </c>
       <c r="E38" s="3">
         <f t="shared" si="1"/>
-        <v>1.0613774892526908E-2</v>
+        <v>4.4397334418367879E-2</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4319200325510364E-2</v>
+      </c>
+      <c r="G38" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9416800745103409</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="7">
         <f t="shared" si="4"/>
-        <v>2.4524790368410265E-2</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9416800745103409</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="9">
+        <v>29</v>
+      </c>
+      <c r="C39" s="3">
         <f t="shared" si="5"/>
-        <v>29</v>
-      </c>
-      <c r="C39" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1239740386012329</v>
+        <v>2.964986793253106</v>
       </c>
       <c r="D39" s="3">
         <f t="shared" si="0"/>
-        <v>4.8918221381746534</v>
+        <v>4.8950458200317639</v>
       </c>
       <c r="E39" s="3">
         <f t="shared" si="1"/>
-        <v>9.9141766592394757E-3</v>
+        <v>4.3457478905482599E-2</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="2"/>
+        <v>2.4037243671644781E-2</v>
+      </c>
+      <c r="G39" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9616800745103413</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="7">
         <f t="shared" si="4"/>
-        <v>2.4228008701996373E-2</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9616800745103413</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="9">
+        <v>30</v>
+      </c>
+      <c r="C40" s="3">
         <f t="shared" si="5"/>
-        <v>30</v>
-      </c>
-      <c r="C40" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1450314924395637</v>
+        <v>3.0048880404783445</v>
       </c>
       <c r="D40" s="3">
         <f t="shared" si="0"/>
-        <v>4.9160501468766498</v>
+        <v>4.9190561394289061</v>
       </c>
       <c r="E40" s="3">
         <f t="shared" si="1"/>
-        <v>9.2671070301055258E-3</v>
+        <v>4.2587037667740399E-2</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="2"/>
+        <v>2.377611130032212E-2</v>
+      </c>
+      <c r="G40" s="3">
+        <f t="shared" si="3"/>
+        <v>4.9816800745103409</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="7">
         <f t="shared" si="4"/>
-        <v>2.3953327506132993E-2</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="2"/>
-        <v>4.9816800745103409</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="9">
+        <v>31</v>
+      </c>
+      <c r="C41" s="3">
         <f t="shared" si="5"/>
-        <v>31</v>
-      </c>
-      <c r="C41" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1649097288629484</v>
+        <v>3.0427106794311878</v>
       </c>
       <c r="D41" s="3">
         <f t="shared" si="0"/>
-        <v>4.9400034743827828</v>
+        <v>4.9428086832586775</v>
       </c>
       <c r="E41" s="3">
         <f t="shared" si="1"/>
-        <v>8.6678233893524286E-3</v>
+        <v>4.1779890349986304E-2</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" si="2"/>
+        <v>2.353396710499589E-2</v>
+      </c>
+      <c r="G41" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0016800745103414</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="7">
         <f t="shared" si="4"/>
-        <v>2.3698774349123042E-2</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0016800745103414</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="9">
+        <v>32</v>
+      </c>
+      <c r="C42" s="3">
         <f t="shared" si="5"/>
-        <v>32</v>
-      </c>
-      <c r="C42" s="3">
-        <f t="shared" si="3"/>
-        <v>2.1836747840466235</v>
+        <v>3.078553477601619</v>
       </c>
       <c r="D42" s="3">
         <f t="shared" si="0"/>
-        <v>4.9637022487319058</v>
+        <v>4.9663219975250668</v>
       </c>
       <c r="E42" s="3">
         <f t="shared" si="1"/>
-        <v>8.1121109346522866E-3</v>
+        <v>4.1030578812058682E-2</v>
       </c>
       <c r="F42" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3309173643617606E-2</v>
+      </c>
+      <c r="G42" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0216800745103409</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="7">
         <f t="shared" si="4"/>
-        <v>2.3462593412810762E-2</v>
-      </c>
-      <c r="G42" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0216800745103409</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="9">
+        <v>33</v>
+      </c>
+      <c r="C43" s="3">
         <f t="shared" si="5"/>
-        <v>33</v>
-      </c>
-      <c r="C43" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2013889961400124</v>
+        <v>3.1125117043634409</v>
       </c>
       <c r="D43" s="3">
         <f t="shared" si="0"/>
-        <v>4.9871648421447166</v>
+        <v>4.9896130532308174</v>
       </c>
       <c r="E43" s="3">
         <f t="shared" si="1"/>
-        <v>7.5962114126492848E-3</v>
+        <v>4.0334220300921014E-2</v>
       </c>
       <c r="F43" s="3">
+        <f t="shared" si="2"/>
+        <v>2.3100266090276305E-2</v>
+      </c>
+      <c r="G43" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0416800745103414</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="7">
         <f t="shared" si="4"/>
-        <v>2.3243216633421326E-2</v>
-      </c>
-      <c r="G43" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0416800745103414</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="9">
+        <v>34</v>
+      </c>
+      <c r="C44" s="3">
         <f t="shared" si="5"/>
-        <v>34</v>
-      </c>
-      <c r="C44" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2181112123561717</v>
+        <v>3.1446770860055273</v>
       </c>
       <c r="D44" s="3">
         <f t="shared" si="0"/>
-        <v>5.0104080587781379</v>
+        <v>5.0126974094217669</v>
       </c>
       <c r="E44" s="3">
         <f t="shared" si="1"/>
-        <v>7.1167631361847179E-3</v>
+        <v>3.9686433974128604E-2</v>
       </c>
       <c r="F44" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2905930192238581E-2</v>
+      </c>
+      <c r="G44" s="3">
+        <f t="shared" si="3"/>
+        <v>5.061680074510341</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="7">
         <f t="shared" si="4"/>
-        <v>2.3039239353040308E-2</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="2"/>
-        <v>5.061680074510341</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="9">
+        <v>35</v>
+      </c>
+      <c r="C45" s="3">
         <f t="shared" si="5"/>
-        <v>35</v>
-      </c>
-      <c r="C45" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2338969844642262</v>
+        <v>3.1751377929690747</v>
       </c>
       <c r="D45" s="3">
         <f t="shared" si="0"/>
-        <v>5.0334472981311782</v>
+        <v>5.0355893557932552</v>
       </c>
       <c r="E45" s="3">
         <f t="shared" si="1"/>
-        <v>6.6707502510807825E-3</v>
+        <v>3.9083278438124938E-2</v>
       </c>
       <c r="F45" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2724983531437482E-2</v>
+      </c>
+      <c r="G45" s="3">
+        <f t="shared" si="3"/>
+        <v>5.0816800745103414</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B46" s="7">
         <f t="shared" si="4"/>
-        <v>2.2849399679106597E-2</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="2"/>
-        <v>5.0816800745103414</v>
-      </c>
-    </row>
-    <row r="46" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="9">
+        <v>36</v>
+      </c>
+      <c r="C46" s="3">
         <f t="shared" si="5"/>
-        <v>36</v>
-      </c>
-      <c r="C46" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2487987533342295</v>
+        <v>3.2039784536220264</v>
       </c>
       <c r="D46" s="3">
         <f t="shared" si="0"/>
-        <v>5.0562966978102848</v>
+        <v>5.0583020378682031</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="1"/>
-        <v>6.255459628135244E-3</v>
+        <v>3.8521198420436484E-2</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2556359526130946E-2</v>
+      </c>
+      <c r="G46" s="3">
+        <f t="shared" si="3"/>
+        <v>5.101680074510341</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B47" s="7">
         <f t="shared" si="4"/>
-        <v>2.2672560908565842E-2</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="2"/>
-        <v>5.101680074510341</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="9">
+        <v>37</v>
+      </c>
+      <c r="C47" s="3">
         <f t="shared" si="5"/>
-        <v>37</v>
-      </c>
-      <c r="C47" s="3">
-        <f t="shared" si="3"/>
-        <v>2.2628660231475126</v>
+        <v>3.2312801897601431</v>
       </c>
       <c r="D47" s="3">
         <f t="shared" si="0"/>
-        <v>5.0789692587188506</v>
+        <v>5.0808475672513307</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="1"/>
-        <v>5.8684440739749585E-3</v>
+        <v>3.7996979052923624E-2</v>
       </c>
       <c r="F47" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2399093715877089E-2</v>
+      </c>
+      <c r="G47" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1216800745103415</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B48" s="7">
         <f t="shared" si="4"/>
-        <v>2.2507696497713781E-2</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="2"/>
-        <v>5.1216800745103415</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="9">
+        <v>38</v>
+      </c>
+      <c r="C48" s="3">
         <f t="shared" si="5"/>
-        <v>38</v>
-      </c>
-      <c r="C48" s="3">
-        <f t="shared" si="3"/>
-        <v>2.276145525851252</v>
+        <v>3.2571206697517816</v>
       </c>
       <c r="D48" s="3">
         <f t="shared" si="0"/>
-        <v>5.1014769552165644</v>
+        <v>5.103237119053345</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="1"/>
-        <v>5.5074908040607939E-3</v>
+        <v>3.7507706526477058E-2</v>
       </c>
       <c r="F48" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2252311957943118E-2</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="3"/>
+        <v>5.141680074510341</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B49" s="7">
         <f t="shared" si="4"/>
-        <v>2.2353877156922053E-2</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="2"/>
-        <v>5.141680074510341</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B49" s="9">
+        <v>39</v>
+      </c>
+      <c r="C49" s="3">
         <f t="shared" si="5"/>
-        <v>39</v>
-      </c>
-      <c r="C49" s="3">
-        <f t="shared" si="3"/>
-        <v>2.288681376403582</v>
+        <v>3.2815741758616004</v>
       </c>
       <c r="D49" s="3">
         <f t="shared" si="0"/>
-        <v>5.1238308323734865</v>
+        <v>5.1254810182435167</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="1"/>
-        <v>5.1705943183734159E-3</v>
+        <v>3.7050734102907254E-2</v>
       </c>
       <c r="F49" s="3">
+        <f t="shared" si="2"/>
+        <v>2.2115220230872177E-2</v>
+      </c>
+      <c r="G49" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1616800745103415</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B50" s="7">
         <f t="shared" si="4"/>
-        <v>2.2210259726987758E-2</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="2"/>
-        <v>5.1616800745103415</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B50" s="9">
+        <v>40</v>
+      </c>
+      <c r="C50" s="3">
         <f t="shared" si="5"/>
-        <v>40</v>
-      </c>
-      <c r="C50" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3005152193249816</v>
+        <v>3.3047116828145673</v>
       </c>
       <c r="D50" s="3">
         <f t="shared" si="0"/>
-        <v>5.1460410921004742</v>
+        <v>5.1475888164135766</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="1"/>
-        <v>4.8559329770827926E-3</v>
+        <v>3.6623652650102173E-2</v>
       </c>
       <c r="F50" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1987095795030651E-2</v>
+      </c>
+      <c r="G50" s="3">
+        <f t="shared" si="3"/>
+        <v>5.1816800745103411</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B51" s="7">
         <f t="shared" si="4"/>
-        <v>2.2076077555935214E-2</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="2"/>
-        <v>5.1816800745103411</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B51" s="9">
+        <v>41</v>
+      </c>
+      <c r="C51" s="3">
         <f t="shared" si="5"/>
-        <v>41</v>
-      </c>
-      <c r="C51" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3116863670427827</v>
+        <v>3.3266009451102656</v>
       </c>
       <c r="D51" s="3">
         <f t="shared" si="0"/>
-        <v>5.1681171696564094</v>
+        <v>5.1695693602086443</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="1"/>
-        <v>4.5618486988330247E-3</v>
+        <v>3.6224265011598575E-2</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1867279503479574E-2</v>
+      </c>
+      <c r="G51" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2016800745103415</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B52" s="7">
         <f t="shared" si="4"/>
-        <v>2.1950632144533522E-2</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="2"/>
-        <v>5.2016800745103415</v>
-      </c>
-    </row>
-    <row r="52" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="9">
+        <v>42</v>
+      </c>
+      <c r="C52" s="3">
         <f t="shared" si="5"/>
-        <v>42</v>
-      </c>
-      <c r="C52" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3222319304883867</v>
+        <v>3.3473065909804656</v>
       </c>
       <c r="D52" s="3">
         <f t="shared" si="0"/>
-        <v>5.190067801800943</v>
+        <v>5.1914308524925943</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="1"/>
-        <v>4.2868293050111958E-3</v>
+        <v>3.585056363901977E-2</v>
       </c>
       <c r="F52" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1755169091705932E-2</v>
+      </c>
+      <c r="G52" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2216800745103411</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B53" s="7">
         <f t="shared" si="4"/>
-        <v>2.1833285869005792E-2</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="2"/>
-        <v>5.2216800745103411</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="9">
+        <v>43</v>
+      </c>
+      <c r="C53" s="3">
         <f t="shared" si="5"/>
-        <v>43</v>
-      </c>
-      <c r="C53" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3321869423810369</v>
+        <v>3.3668902212103071</v>
       </c>
       <c r="D53" s="3">
         <f t="shared" si="0"/>
-        <v>5.2119010876699488</v>
+        <v>5.2131809071585531</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="1"/>
-        <v>4.0294931147618739E-3</v>
+        <v>3.5500711011152833E-2</v>
       </c>
       <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>2.165021330334585E-2</v>
+      </c>
+      <c r="G53" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2416800745103416</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B54" s="7">
         <f t="shared" si="4"/>
-        <v>2.1723455621597054E-2</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="2"/>
-        <v>5.2416800745103416</v>
-      </c>
-    </row>
-    <row r="54" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B54" s="9">
+        <v>44</v>
+      </c>
+      <c r="C54" s="3">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="C54" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3415844736076989</v>
+        <v>3.3854105113234616</v>
       </c>
       <c r="D54" s="3">
         <f t="shared" si="0"/>
-        <v>5.2336245432915458</v>
+        <v>5.2348265983642435</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="1"/>
-        <v>3.7885754615979415E-3</v>
+        <v>3.5173022441256002E-2</v>
       </c>
       <c r="F54" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1551906732376801E-2</v>
+      </c>
+      <c r="G54" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2616800745103411</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B55" s="7">
         <f t="shared" si="4"/>
-        <v>2.1620607236183531E-2</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="2"/>
-        <v>5.2616800745103411</v>
-      </c>
-    </row>
-    <row r="55" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B55" s="9">
+        <v>45</v>
+      </c>
+      <c r="C55" s="3">
         <f t="shared" si="5"/>
-        <v>45</v>
-      </c>
-      <c r="C55" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3504557430856674</v>
+        <v>3.4029233158714018</v>
       </c>
       <c r="D55" s="3">
         <f t="shared" si="0"/>
-        <v>5.2552451505277293</v>
+        <v>5.2563745048620483</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="1"/>
-        <v>3.5629168563746927E-3</v>
+        <v>3.4865950937997964E-2</v>
       </c>
       <c r="F55" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1459785281399388E-2</v>
+      </c>
+      <c r="G55" s="3">
+        <f t="shared" si="3"/>
+        <v>5.2816800745103416</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B56" s="7">
         <f t="shared" si="4"/>
-        <v>2.1524250587546589E-2</v>
-      </c>
-      <c r="G55" s="3">
-        <f t="shared" si="2"/>
-        <v>5.2816800745103416</v>
-      </c>
-    </row>
-    <row r="56" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B56" s="9">
+        <v>46</v>
+      </c>
+      <c r="C56" s="3">
         <f t="shared" si="5"/>
-        <v>46</v>
-      </c>
-      <c r="C56" s="3">
-        <f t="shared" si="3"/>
-        <v>2.35883022147287</v>
+        <v>3.4194817737722016</v>
       </c>
       <c r="D56" s="3">
         <f t="shared" si="0"/>
-        <v>5.2767694011152759</v>
+        <v>5.2778307500011294</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="1"/>
-        <v>3.3514525655784721E-3</v>
+        <v>3.4578073837980533E-2</v>
       </c>
       <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1373422151394161E-2</v>
+      </c>
+      <c r="G56" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3016800745103412</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B57" s="7">
         <f t="shared" si="4"/>
-        <v>2.143393527074533E-2</v>
-      </c>
-      <c r="G56" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3016800745103412</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B57" s="9">
+        <v>47</v>
+      </c>
+      <c r="C57" s="3">
         <f t="shared" si="5"/>
-        <v>47</v>
-      </c>
-      <c r="C57" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3667357290703892</v>
+        <v>3.4351364138201594</v>
       </c>
       <c r="D57" s="3">
         <f t="shared" si="0"/>
-        <v>5.2982033363860213</v>
+        <v>5.2992010379007644</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="1"/>
-        <v>3.1532034102470128E-3</v>
+        <v>3.4308080971248642E-2</v>
       </c>
       <c r="F57" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1292424291374592E-2</v>
+      </c>
+      <c r="G57" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3216800745103416</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B58" s="7">
         <f t="shared" si="4"/>
-        <v>2.1349246781499076E-2</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3216800745103416</v>
-      </c>
-    </row>
-    <row r="58" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B58" s="9">
+        <v>48</v>
+      </c>
+      <c r="C58" s="3">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="C58" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3741985282424474</v>
+        <v>3.4499352596381812</v>
       </c>
       <c r="D58" s="3">
         <f t="shared" si="0"/>
-        <v>5.3195525831675203</v>
+        <v>5.3204906862277541</v>
       </c>
       <c r="E58" s="3">
         <f t="shared" si="1"/>
-        <v>2.9672676208918709E-3</v>
+        <v>3.4054764157262149E-2</v>
       </c>
       <c r="F58" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1216429247178644E-2</v>
+      </c>
+      <c r="G58" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3416800745103412</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B59" s="7">
         <f t="shared" si="4"/>
-        <v>2.1269803130686604E-2</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3416800745103412</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B59" s="9">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3">
         <f t="shared" si="5"/>
-        <v>49</v>
-      </c>
-      <c r="C59" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3812434106608702</v>
+        <v>3.4639239334738368</v>
       </c>
       <c r="D59" s="3">
         <f t="shared" si="0"/>
-        <v>5.3408223862982069</v>
+        <v>5.3417046559543522</v>
       </c>
       <c r="E59" s="3">
         <f t="shared" si="1"/>
-        <v>2.7928136087295567E-3</v>
+        <v>3.3817007858859549E-2</v>
       </c>
       <c r="F59" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1145102357657864E-2</v>
+      </c>
+      <c r="G59" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3616800745103408</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B60" s="7">
         <f t="shared" si="4"/>
-        <v>2.1195251836041429E-2</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3616800745103408</v>
-      </c>
-    </row>
-    <row r="60" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B60" s="9">
+        <v>50</v>
+      </c>
+      <c r="C60" s="3">
         <f t="shared" si="5"/>
-        <v>50</v>
-      </c>
-      <c r="C60" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3878937796638615</v>
+        <v>3.4771457583503982</v>
       </c>
       <c r="D60" s="3">
         <f t="shared" si="0"/>
-        <v>5.3620176381342484</v>
+        <v>5.3628475784249972</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="1"/>
-        <v>2.6290735342957674E-3</v>
+        <v>3.3593780846877086E-2</v>
       </c>
       <c r="F60" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1078134254063127E-2</v>
+      </c>
+      <c r="G60" s="3">
+        <f t="shared" si="3"/>
+        <v>5.3816800745103412</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B61" s="7">
         <f t="shared" si="4"/>
-        <v>2.1125267242555701E-2</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="2"/>
-        <v>5.3816800745103412</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B61" s="9">
+        <v>51</v>
+      </c>
+      <c r="C61" s="3">
         <f t="shared" si="5"/>
-        <v>51</v>
-      </c>
-      <c r="C61" s="3">
-        <f t="shared" si="3"/>
-        <v>2.3941717280026853</v>
+        <v>3.4896418581785578</v>
       </c>
       <c r="D61" s="3">
         <f t="shared" si="0"/>
-        <v>5.3831429053768041</v>
+        <v>5.3839237800189323</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="1"/>
-        <v>2.4753375718765389E-3</v>
+        <v>3.3384128749177025E-2</v>
       </c>
       <c r="F61" s="3">
+        <f t="shared" si="2"/>
+        <v>2.1015238624753109E-2</v>
+      </c>
+      <c r="G61" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4016800745103417</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B62" s="7">
         <f t="shared" si="4"/>
-        <v>2.1059548130072159E-2</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="2"/>
-        <v>5.4016800745103417</v>
-      </c>
-    </row>
-    <row r="62" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B62" s="9">
+        <v>52</v>
+      </c>
+      <c r="C62" s="3">
         <f t="shared" si="5"/>
-        <v>52</v>
-      </c>
-      <c r="C62" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4000981112345348</v>
+        <v>3.5014512555151511</v>
       </c>
       <c r="D62" s="3">
         <f t="shared" si="0"/>
-        <v>5.4042024535068762</v>
+        <v>5.4049373046603808</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="1"/>
-        <v>2.3309487827513952E-3</v>
+        <v>3.3187167375595281E-2</v>
       </c>
       <c r="F62" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0956150212678583E-2</v>
+      </c>
+      <c r="G62" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4216800745103413</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B63" s="7">
         <f t="shared" si="4"/>
-        <v>2.0997815572515677E-2</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="2"/>
-        <v>5.4216800745103413</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B63" s="9">
+        <v>53</v>
+      </c>
+      <c r="C63" s="3">
         <f t="shared" si="5"/>
-        <v>53</v>
-      </c>
-      <c r="C63" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4056926170054007</v>
+        <v>3.5126109667239658</v>
       </c>
       <c r="D63" s="3">
         <f t="shared" si="0"/>
-        <v>5.4252002690793919</v>
+        <v>5.4258919343974945</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="1"/>
-        <v>2.1952985224985193E-3</v>
+        <v>3.300207672531609E-2</v>
       </c>
       <c r="F63" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0900623017594828E-2</v>
+      </c>
+      <c r="G63" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4416800745103409</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B64" s="7">
         <f t="shared" si="4"/>
-        <v>2.0939811018083176E-2</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="2"/>
-        <v>5.4416800745103409</v>
-      </c>
-    </row>
-    <row r="64" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B64" s="9">
+        <v>54</v>
+      </c>
+      <c r="C64" s="3">
         <f t="shared" si="5"/>
-        <v>54</v>
-      </c>
-      <c r="C64" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4109738304530981</v>
+        <v>3.5231560943522577</v>
       </c>
       <c r="D64" s="3">
         <f t="shared" si="0"/>
-        <v>5.4461400800974751</v>
+        <v>5.4467912082449228</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="1"/>
-        <v>2.0678223179592089E-3</v>
+        <v>3.282809559588741E-2</v>
       </c>
       <c r="F64" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0848428678766222E-2</v>
+      </c>
+      <c r="G64" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4616800745103413</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B65" s="7">
         <f t="shared" si="4"/>
-        <v>2.0885294564036982E-2</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="2"/>
-        <v>5.4616800745103413</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B65" s="9">
+        <v>55</v>
+      </c>
+      <c r="C65" s="3">
         <f t="shared" si="5"/>
-        <v>55</v>
-      </c>
-      <c r="C65" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4159592959477245</v>
+        <v>3.5331199165863194</v>
       </c>
       <c r="D65" s="3">
         <f t="shared" si="0"/>
-        <v>5.4670253746615121</v>
+        <v>5.467638439462144</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="1"/>
-        <v>1.9479961582222246E-3</v>
+        <v>3.2664516723887149E-2</v>
       </c>
       <c r="F65" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0799355017166146E-2</v>
+      </c>
+      <c r="G65" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4816800745103418</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B66" s="7">
         <f t="shared" si="4"/>
-        <v>2.0834043403196389E-2</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="2"/>
-        <v>5.4816800745103418</v>
-      </c>
-    </row>
-    <row r="66" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B66" s="9">
+        <v>56</v>
+      </c>
+      <c r="C66" s="3">
         <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="C66" s="3">
-        <f t="shared" si="3"/>
-        <v>2.420665575374652</v>
+        <v>3.5425339736915626</v>
       </c>
       <c r="D66" s="3">
         <f t="shared" si="0"/>
-        <v>5.4878594180647084</v>
+        <v>5.4884367314198457</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="1"/>
-        <v>1.8353331514337212E-3</v>
+        <v>3.2510682396451107E-2</v>
       </c>
       <c r="F66" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0753204718935332E-2</v>
+      </c>
+      <c r="G66" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5016800745103414</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B67" s="7">
         <f t="shared" si="4"/>
-        <v>2.0785850422337049E-2</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5016800745103414</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="9">
+        <v>57</v>
+      </c>
+      <c r="C67" s="3">
         <f t="shared" si="5"/>
-        <v>57</v>
-      </c>
-      <c r="C67" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4251083031536718</v>
+        <v>3.5514281513781403</v>
       </c>
       <c r="D67" s="3">
         <f t="shared" si="0"/>
-        <v>5.5086452684870455</v>
+        <v>5.5091889921895074</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="1"/>
-        <v>1.7293805055800901E-3</v>
+        <v>3.2365980480735371E-2</v>
       </c>
       <c r="F67" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0709794144220611E-2</v>
+      </c>
+      <c r="G67" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5216800745103409</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B68" s="7">
         <f t="shared" si="4"/>
-        <v>2.0740522935257744E-2</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5216800745103409</v>
-      </c>
-    </row>
-    <row r="68" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B68" s="9">
+        <v>58</v>
+      </c>
+      <c r="C68" s="3">
         <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="C68" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4293022381770659</v>
+        <v>3.5598307610630351</v>
       </c>
       <c r="D68" s="3">
         <f t="shared" si="0"/>
-        <v>5.5293857914223032</v>
+        <v>5.5298979479762806</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" si="1"/>
-        <v>1.6297167968095925E-3</v>
+        <v>3.2229840825121578E-2</v>
       </c>
       <c r="F68" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0668952247536475E-2</v>
+      </c>
+      <c r="G68" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5416800745103414</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B69" s="7">
         <f t="shared" si="4"/>
-        <v>2.0697881535482132E-2</v>
-      </c>
-      <c r="G68" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5416800745103414</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="9">
+        <v>59</v>
+      </c>
+      <c r="C69" s="3">
         <f t="shared" si="5"/>
-        <v>59</v>
-      </c>
-      <c r="C69" s="3">
-        <f t="shared" si="3"/>
-        <v>2.43326131283915</v>
+        <v>3.5677686170245768</v>
       </c>
       <c r="D69" s="3">
         <f t="shared" si="0"/>
-        <v>5.5500836729577854</v>
+        <v>5.5505661555021693</v>
       </c>
       <c r="E69" s="3">
         <f t="shared" si="1"/>
-        <v>1.5359494934996513E-3</v>
+        <v>3.2101731991760113E-2</v>
       </c>
       <c r="F69" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0630519597528034E-2</v>
+      </c>
+      <c r="G69" s="3">
+        <f t="shared" si="3"/>
+        <v>5.561680074510341</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B70" s="7">
         <f t="shared" si="4"/>
-        <v>2.0657759055511704E-2</v>
-      </c>
-      <c r="G69" s="3">
-        <f t="shared" si="2"/>
-        <v>5.561680074510341</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="9">
+        <v>60</v>
+      </c>
+      <c r="C70" s="3">
         <f t="shared" si="5"/>
-        <v>60</v>
-      </c>
-      <c r="C70" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4369986793201575</v>
+        <v>3.5752671104661746</v>
       </c>
       <c r="D70" s="3">
         <f t="shared" si="0"/>
-        <v>5.5707414320132971</v>
+        <v>5.5711960134350251</v>
       </c>
       <c r="E70" s="3">
         <f t="shared" si="1"/>
-        <v>1.4477127082626927E-3</v>
+        <v>3.1981158285028136E-2</v>
       </c>
       <c r="F70" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0594347485508441E-2</v>
+      </c>
+      <c r="G70" s="3">
+        <f t="shared" si="3"/>
+        <v>5.5816800745103414</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B71" s="7">
         <f t="shared" si="4"/>
-        <v>2.0619999621084517E-2</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="2"/>
-        <v>5.5816800745103414</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="9">
+        <v>61</v>
+      </c>
+      <c r="C71" s="3">
         <f t="shared" si="5"/>
-        <v>61</v>
-      </c>
-      <c r="C71" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4405267532782284</v>
+        <v>3.5823502805232637</v>
       </c>
       <c r="D71" s="3">
         <f t="shared" si="0"/>
-        <v>5.5913614316343816</v>
+        <v>5.5917897729487596</v>
       </c>
       <c r="E71" s="3">
         <f t="shared" si="1"/>
-        <v>1.3646651535147132E-3</v>
+        <v>3.1867657044780784E-2</v>
       </c>
       <c r="F71" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0560297113434236E-2</v>
+      </c>
+      <c r="G71" s="3">
+        <f t="shared" si="3"/>
+        <v>5.601680074510341</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B72" s="7">
         <f t="shared" si="4"/>
-        <v>2.0584457790414845E-2</v>
-      </c>
-      <c r="G71" s="3">
-        <f t="shared" si="2"/>
-        <v>5.601680074510341</v>
-      </c>
-    </row>
-    <row r="72" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="9">
+        <v>62</v>
+      </c>
+      <c r="C72" s="3">
         <f t="shared" si="5"/>
-        <v>62</v>
-      </c>
-      <c r="C72" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4438572550946476</v>
+        <v>3.5890408822615556</v>
       </c>
       <c r="D72" s="3">
         <f t="shared" si="0"/>
-        <v>5.6119458894247964</v>
+        <v>5.6123495474913225</v>
       </c>
       <c r="E72" s="3">
         <f t="shared" si="1"/>
-        <v>1.2864882791928725E-3</v>
+        <v>3.176079617699494E-2</v>
       </c>
       <c r="F72" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0528238853098481E-2</v>
+      </c>
+      <c r="G72" s="3">
+        <f t="shared" si="3"/>
+        <v>5.6216800745103415</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B73" s="7">
         <f t="shared" si="4"/>
-        <v>2.0550997769513302E-2</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6216800745103415</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B73" s="9">
+        <v>63</v>
+      </c>
+      <c r="C73" s="3">
         <f t="shared" si="5"/>
-        <v>63</v>
-      </c>
-      <c r="C73" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4470012488093476</v>
+        <v>3.5953604517261204</v>
       </c>
       <c r="D73" s="3">
         <f t="shared" si="0"/>
-        <v>5.6324968871943097</v>
+        <v>5.6328773218291426</v>
       </c>
       <c r="E73" s="3">
         <f t="shared" si="1"/>
-        <v>1.2128845737698971E-3</v>
+        <v>3.1660171897631526E-2</v>
       </c>
       <c r="F73" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0498051569289459E-2</v>
+      </c>
+      <c r="G73" s="3">
+        <f t="shared" si="3"/>
+        <v>5.641680074510341</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B74" s="7">
         <f t="shared" si="4"/>
-        <v>2.0519492695781238E-2</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="2"/>
-        <v>5.641680074510341</v>
-      </c>
-    </row>
-    <row r="74" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B74" s="9">
+        <v>64</v>
+      </c>
+      <c r="C74" s="3">
         <f t="shared" si="5"/>
-        <v>64</v>
-      </c>
-      <c r="C74" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4499691788760245</v>
+        <v>3.6013293681099317</v>
       </c>
       <c r="D74" s="3">
         <f t="shared" si="0"/>
-        <v>5.653016379890091</v>
+        <v>5.6533749604298258</v>
       </c>
       <c r="E74" s="3">
         <f t="shared" si="1"/>
-        <v>1.1435760119349687E-3</v>
+        <v>3.1565406668346993E-2</v>
       </c>
       <c r="F74" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0469622000504097E-2</v>
+      </c>
+      <c r="G74" s="3">
+        <f t="shared" si="3"/>
+        <v>5.6616800745103415</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B75" s="7">
         <f t="shared" si="4"/>
-        <v>2.0489823982986266E-2</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="2"/>
-        <v>5.6616800745103415</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B75" s="9">
+        <v>65</v>
+      </c>
+      <c r="C75" s="3">
         <f t="shared" si="5"/>
-        <v>65</v>
-      </c>
-      <c r="C75" s="3">
-        <f t="shared" si="3"/>
-        <v>2.452770904858967</v>
+        <v>3.6069669131176849</v>
       </c>
       <c r="D75" s="3">
-        <f t="shared" si="0"/>
-        <v>5.6735062038730772</v>
+        <f t="shared" ref="D75:D104" si="6">$D$3*LN(C75) + LN($H$5) + $H$3*B75</f>
+        <v>5.673844215238776</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="1"/>
-        <v>1.0783026342404925E-3</v>
+        <f t="shared" ref="E75:E104" si="7">$D$4*(1/C75)^(1-$D$3) - $D$5</f>
+        <v>3.1476147305126739E-2</v>
       </c>
       <c r="F75" s="3">
-        <f t="shared" ref="F75:F103" si="6">D76-D75</f>
-        <v>2.0461880721519776E-2</v>
+        <f t="shared" ref="F75:F103" si="8">$D$3*(E75-$H$3-$H$4)+$H$3</f>
+        <v>2.0442844191538023E-2</v>
       </c>
       <c r="G75" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G75:G104" si="9">($D$3)*LN($K$3) + LN($H$5) + $H$3*B75</f>
         <v>5.6816800745103411</v>
       </c>
     </row>
     <row r="76" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B76" s="9">
-        <f t="shared" si="5"/>
+      <c r="B76" s="7">
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C76" s="3">
-        <f t="shared" si="3"/>
-        <v>2.455415734186865</v>
+        <f t="shared" ref="C76:C104" si="10">C75*(1+E75-$H$3-$H$4)</f>
+        <v>3.6122913276061652</v>
       </c>
       <c r="D76" s="3">
-        <f t="shared" si="0"/>
-        <v>5.693968084594597</v>
+        <f t="shared" si="6"/>
+        <v>5.6942867328999833</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="1"/>
-        <v>1.016821245695232E-3</v>
+        <f t="shared" si="7"/>
+        <v>3.1392063243044416E-2</v>
       </c>
       <c r="F76" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0417618972913325E-2</v>
+      </c>
+      <c r="G76" s="3">
+        <f t="shared" si="9"/>
+        <v>5.7016800745103415</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B77" s="7">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="C77" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6173198655864938</v>
+      </c>
+      <c r="D77" s="3">
         <f t="shared" si="6"/>
-        <v>2.0435559128490155E-2</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7016800745103415</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B77" s="9">
-        <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="C77" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4579124530724004</v>
-      </c>
-      <c r="D77" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7144036437230872</v>
+        <v>5.7147040614663638</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="1"/>
-        <v>9.5890422175104332E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.1312844942215409E-2</v>
       </c>
       <c r="F77" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0393853482664624E-2</v>
+      </c>
+      <c r="G77" s="3">
+        <f t="shared" si="9"/>
+        <v>5.7216800745103411</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B78" s="7">
+        <f t="shared" si="4"/>
+        <v>68</v>
+      </c>
+      <c r="C78" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6220688456764041</v>
+      </c>
+      <c r="D78" s="3">
         <f t="shared" si="6"/>
-        <v>2.0410762042910591E-2</v>
-      </c>
-      <c r="G77" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7216800745103411</v>
-      </c>
-    </row>
-    <row r="78" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B78" s="9">
-        <f t="shared" si="5"/>
-        <v>68</v>
-      </c>
-      <c r="C78" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4602693557003459</v>
-      </c>
-      <c r="D78" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7348144057659978</v>
+        <v>5.7350976566408063</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="1"/>
-        <v>9.0433841141238514E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.123820242164492E-2</v>
       </c>
       <c r="F78" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0371460726493477E-2</v>
+      </c>
+      <c r="G78" s="3">
+        <f t="shared" si="9"/>
+        <v>5.7416800745103416</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B79" s="7">
+        <f t="shared" si="4"/>
+        <v>69</v>
+      </c>
+      <c r="C79" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6265537000924848</v>
+      </c>
+      <c r="D79" s="3">
         <f t="shared" si="6"/>
-        <v>2.038739846162585E-2</v>
-      </c>
-      <c r="G78" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7416800745103416</v>
-      </c>
-    </row>
-    <row r="79" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B79" s="9">
-        <f t="shared" si="5"/>
-        <v>69</v>
-      </c>
-      <c r="C79" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4624942717811269</v>
-      </c>
-      <c r="D79" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7552018042276236</v>
+        <v>5.7554688875851721</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="1"/>
-        <v>8.529241283220275E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.1167863909105684E-2</v>
       </c>
       <c r="F79" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0350359172731706E-2</v>
+      </c>
+      <c r="G79" s="3">
+        <f t="shared" si="9"/>
+        <v>5.7616800745103411</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B80" s="7">
+        <f t="shared" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="C80" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6307890212732565</v>
+      </c>
+      <c r="D80" s="3">
         <f t="shared" si="6"/>
-        <v>2.0365383112243229E-2</v>
-      </c>
-      <c r="G79" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7616800745103411</v>
-      </c>
-    </row>
-    <row r="80" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B80" s="9">
-        <f t="shared" si="5"/>
-        <v>70</v>
-      </c>
-      <c r="C80" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4645945925613835</v>
-      </c>
-      <c r="D80" s="3">
-        <f t="shared" si="0"/>
-        <v>5.7755671873398668</v>
+        <v>5.7758190423311344</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="1"/>
-        <v>8.0447422166173303E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.1101574596439793E-2</v>
       </c>
       <c r="F80" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0330472378931937E-2</v>
+      </c>
+      <c r="G80" s="3">
+        <f t="shared" si="9"/>
+        <v>5.7816800745103416</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B81" s="7">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="C81" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6347886062241237</v>
+      </c>
+      <c r="D81" s="3">
         <f t="shared" si="6"/>
-        <v>2.0344636059593135E-2</v>
-      </c>
-      <c r="G80" s="3">
-        <f t="shared" si="2"/>
-        <v>5.7816800745103416</v>
-      </c>
-    </row>
-    <row r="81" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B81" s="9">
-        <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="C81" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4665772953779461</v>
-      </c>
-      <c r="D81" s="3">
-        <f t="shared" si="0"/>
-        <v>5.79591182339946</v>
+        <v>5.7961493328236395</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="1"/>
-        <v>7.588132195744669E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.1039095490790911E-2</v>
       </c>
       <c r="F81" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0311728647237272E-2</v>
+      </c>
+      <c r="G81" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8016800745103412</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B82" s="7">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="C82" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6385654986748293</v>
+      </c>
+      <c r="D82" s="3">
         <f t="shared" si="6"/>
-        <v>2.0325082342734113E-2</v>
-      </c>
-      <c r="G81" s="3">
-        <f t="shared" si="2"/>
-        <v>5.8016800745103412</v>
-      </c>
-    </row>
-    <row r="82" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B82" s="9">
-        <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="C82" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4684489668367808</v>
-      </c>
-      <c r="D82" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8162369057421941</v>
+        <v>5.8164608996250671</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="1"/>
-        <v>7.157765385785651E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.098020235325287E-2</v>
       </c>
       <c r="F82" s="3">
+        <f t="shared" si="8"/>
+        <v>2.029406070597586E-2</v>
+      </c>
+      <c r="G82" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8216800745103416</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B83" s="7">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="C83" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6421320291390948</v>
+      </c>
+      <c r="D83" s="3">
         <f t="shared" si="6"/>
-        <v>2.0306651639740103E-2</v>
-      </c>
-      <c r="G82" s="3">
-        <f t="shared" si="2"/>
-        <v>5.8216800745103416</v>
-      </c>
-    </row>
-    <row r="83" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B83" s="9">
-        <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="C83" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4702158246939212</v>
-      </c>
-      <c r="D83" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8365435573819342</v>
+        <v>5.8367548163056524</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="1"/>
-        <v>6.752097531182626E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0924684717287307E-2</v>
       </c>
       <c r="F83" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0277405415186193E-2</v>
+      </c>
+      <c r="G83" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8416800745103412</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B84" s="7">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="C84" s="3">
+        <f t="shared" si="10"/>
+        <v>3.645499852964782</v>
+      </c>
+      <c r="D84" s="3">
         <f t="shared" si="6"/>
-        <v>2.0289277957815877E-2</v>
-      </c>
-      <c r="G83" s="3">
-        <f t="shared" si="2"/>
-        <v>5.8416800745103412</v>
-      </c>
-    </row>
-    <row r="84" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B84" s="9">
-        <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="C84" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4718837385110612</v>
-      </c>
-      <c r="D84" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8568328353397501</v>
+        <v>5.8570320935435749</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="1"/>
-        <v>6.3696791999165317E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.087234498003151E-2</v>
       </c>
       <c r="F84" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0261703494009454E-2</v>
+      </c>
+      <c r="G84" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8616800745103408</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B85" s="7">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="C85" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6486799864612212</v>
+      </c>
+      <c r="D85" s="3">
         <f t="shared" si="6"/>
-        <v>2.0272899346585049E-2</v>
-      </c>
-      <c r="G84" s="3">
-        <f t="shared" si="2"/>
-        <v>5.8616800745103408</v>
-      </c>
-    </row>
-    <row r="85" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B85" s="9">
-        <f t="shared" si="5"/>
-        <v>75</v>
-      </c>
-      <c r="C85" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4734582491544415</v>
-      </c>
-      <c r="D85" s="3">
-        <f t="shared" si="0"/>
-        <v>5.8771057346863351</v>
+        <v>5.8772936829560596</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="1"/>
-        <v>6.0091495292446408E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0822997560297327E-2</v>
       </c>
       <c r="F85" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0246899268089199E-2</v>
+      </c>
+      <c r="G85" s="3">
+        <f t="shared" si="9"/>
+        <v>5.8816800745103412</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B86" s="7">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="C86" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6516828411883844</v>
+      </c>
+      <c r="D86" s="3">
         <f t="shared" si="6"/>
-        <v>2.0257457632499865E-2</v>
-      </c>
-      <c r="G85" s="3">
-        <f t="shared" si="2"/>
-        <v>5.8816800745103412</v>
-      </c>
-    </row>
-    <row r="86" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B86" s="9">
-        <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="C86" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4749445872017928</v>
-      </c>
-      <c r="D86" s="3">
-        <f t="shared" si="0"/>
-        <v>5.897363192318835</v>
+        <v>5.8975404806811103</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="1"/>
-        <v>5.6692304302698041E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0776468117667946E-2</v>
       </c>
       <c r="F86" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0232940435300384E-2</v>
+      </c>
+      <c r="G86" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9016800745103417</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B87" s="7">
+        <f t="shared" si="4"/>
+        <v>77</v>
+      </c>
+      <c r="C87" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6545182564904017</v>
+      </c>
+      <c r="D87" s="3">
         <f t="shared" si="6"/>
-        <v>2.0242898172657675E-2</v>
-      </c>
-      <c r="G86" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9016800745103417</v>
-      </c>
-    </row>
-    <row r="87" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B87" s="9">
-        <f t="shared" si="5"/>
-        <v>77</v>
-      </c>
-      <c r="C87" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4763476903184922</v>
-      </c>
-      <c r="D87" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9176060904914927</v>
+        <v>5.9177733307277869</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="1"/>
-        <v>5.3487212128685028E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.07325928276376E-2</v>
       </c>
       <c r="F87" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0219777848291279E-2</v>
+      </c>
+      <c r="G87" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9216800745103413</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B88" s="7">
+        <f t="shared" si="4"/>
+        <v>78</v>
+      </c>
+      <c r="C88" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6571955303535773</v>
+      </c>
+      <c r="D88" s="3">
         <f t="shared" si="6"/>
-        <v>2.022916962636323E-2</v>
-      </c>
-      <c r="G87" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9216800745103413</v>
-      </c>
-    </row>
-    <row r="88" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B88" s="9">
-        <f t="shared" si="5"/>
-        <v>78</v>
-      </c>
-      <c r="C88" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4776722196606564</v>
-      </c>
-      <c r="D88" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9378352601178559</v>
+        <v>5.9379930281115367</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="1"/>
-        <v>5.046493596213052E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0691217708219101E-2</v>
       </c>
       <c r="F88" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0207365312465732E-2</v>
+      </c>
+      <c r="G88" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9416800745103409</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B89" s="7">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="C89" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6597234486665768</v>
+      </c>
+      <c r="D89" s="3">
         <f t="shared" si="6"/>
-        <v>2.0216223742981043E-2</v>
-      </c>
-      <c r="G88" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9416800745103409</v>
-      </c>
-    </row>
-    <row r="89" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B89" s="9">
-        <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="C89" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4789225753596593</v>
-      </c>
-      <c r="D89" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9580514838608369</v>
+        <v>5.9582003217897226</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="1"/>
-        <v>4.7614870734226806E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0652197993872574E-2</v>
       </c>
       <c r="F89" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0195659398161772E-2</v>
+      </c>
+      <c r="G89" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9616800745103413</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B90" s="7">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="C90" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6621103129579256</v>
+      </c>
+      <c r="D90" s="3">
         <f t="shared" si="6"/>
-        <v>2.0204015164793532E-2</v>
-      </c>
-      <c r="G89" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9616800745103413</v>
-      </c>
-    </row>
-    <row r="90" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B90" s="9">
-        <f t="shared" si="5"/>
-        <v>80</v>
-      </c>
-      <c r="C90" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4801029111395185</v>
-      </c>
-      <c r="D90" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9782554990256305</v>
+        <v>5.9783959174112784</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="1"/>
-        <v>4.4927046018224267E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0615397552992071E-2</v>
       </c>
       <c r="F90" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0184619265897621E-2</v>
+      </c>
+      <c r="G90" s="3">
+        <f t="shared" si="9"/>
+        <v>5.9816800745103418</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B91" s="7">
+        <f t="shared" si="4"/>
+        <v>81</v>
+      </c>
+      <c r="C91" s="3">
+        <f t="shared" si="10"/>
+        <v>3.664363966683307</v>
+      </c>
+      <c r="D91" s="3">
         <f t="shared" si="6"/>
-        <v>2.0192501243610828E-2</v>
-      </c>
-      <c r="G90" s="3">
-        <f t="shared" si="2"/>
-        <v>5.9816800745103418</v>
-      </c>
-    </row>
-    <row r="91" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B91" s="9">
-        <f t="shared" si="5"/>
-        <v>81</v>
-      </c>
-      <c r="C91" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4812171481157055</v>
-      </c>
-      <c r="D91" s="3">
-        <f t="shared" si="0"/>
-        <v>5.9984480002692413</v>
+        <v>5.9985804798933495</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="1"/>
-        <v>4.2392085929250103E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0580688345529392E-2</v>
       </c>
       <c r="F91" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0174206503658816E-2</v>
+      </c>
+      <c r="G91" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0016800745103414</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B92" s="7">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="C92" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6664918201325376</v>
+      </c>
+      <c r="D92" s="3">
         <f t="shared" si="6"/>
-        <v>2.0181641870100187E-2</v>
-      </c>
-      <c r="G91" s="3">
-        <f t="shared" si="2"/>
-        <v>6.0016800745103414</v>
-      </c>
-    </row>
-    <row r="92" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B92" s="9">
-        <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="C92" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4822689878212256</v>
-      </c>
-      <c r="D92" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0186296421393415</v>
+        <v>6.0187546358367374</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="1"/>
-        <v>4.000117178609626E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0547949917642467E-2</v>
       </c>
       <c r="F92" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0164384975292739E-2</v>
+      </c>
+      <c r="G92" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0216800745103409</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B93" s="7">
+        <f t="shared" si="4"/>
+        <v>83</v>
+      </c>
+      <c r="C93" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6685008740234157</v>
+      </c>
+      <c r="D93" s="3">
         <f t="shared" si="6"/>
-        <v>2.0171399314786065E-2</v>
-      </c>
-      <c r="G92" s="3">
-        <f t="shared" si="2"/>
-        <v>6.0216800745103409</v>
-      </c>
-    </row>
-    <row r="93" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B93" s="9">
-        <f t="shared" si="5"/>
-        <v>83</v>
-      </c>
-      <c r="C93" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4832619245032368</v>
-      </c>
-      <c r="D93" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0388010414541275</v>
+        <v>6.038918975791109</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="1"/>
-        <v>3.7746007320844672E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0517068930531174E-2</v>
       </c>
       <c r="F93" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0155120679159352E-2</v>
+      </c>
+      <c r="G93" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0416800745103414</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B94" s="7">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="C94" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6703977418469997</v>
+      </c>
+      <c r="D94" s="3">
         <f t="shared" si="6"/>
-        <v>2.0161738079889524E-2</v>
-      </c>
-      <c r="G93" s="3">
-        <f t="shared" si="2"/>
-        <v>6.0416800745103414</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B94" s="9">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="C94" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4841992567310558</v>
-      </c>
-      <c r="D94" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0589627795340171</v>
+        <v>6.0590740563800445</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="1"/>
-        <v>3.5618786241215102E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0487938720872673E-2</v>
       </c>
       <c r="F94" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0146381616261803E-2</v>
+      </c>
+      <c r="G94" s="3">
+        <f t="shared" si="9"/>
+        <v>6.061680074510341</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B95" s="7">
+        <f t="shared" si="4"/>
+        <v>85</v>
+      </c>
+      <c r="C95" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6721886710262508</v>
+      </c>
+      <c r="D95" s="3">
         <f t="shared" si="6"/>
-        <v>2.0152624761103688E-2</v>
-      </c>
-      <c r="G94" s="3">
-        <f t="shared" si="2"/>
-        <v>6.061680074510341</v>
-      </c>
-    </row>
-    <row r="95" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B95" s="9">
-        <f t="shared" si="5"/>
-        <v>85</v>
-      </c>
-      <c r="C95" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4850840983541165</v>
-      </c>
-      <c r="D95" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0791154042951208</v>
+        <v>6.0792204022952907</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="1"/>
-        <v>3.3612161967584307E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0460458890491371E-2</v>
       </c>
       <c r="F95" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0138137667147411E-2</v>
+      </c>
+      <c r="G95" s="3">
+        <f t="shared" si="9"/>
+        <v>6.0816800745103414</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B96" s="7">
+        <f t="shared" si="4"/>
+        <v>86</v>
+      </c>
+      <c r="C96" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6738795629473864</v>
+      </c>
+      <c r="D96" s="3">
         <f t="shared" si="6"/>
-        <v>2.0144027918624907E-2</v>
-      </c>
-      <c r="G95" s="3">
-        <f t="shared" si="2"/>
-        <v>6.0816800745103414</v>
-      </c>
-    </row>
-    <row r="96" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B96" s="9">
-        <f t="shared" si="5"/>
-        <v>86</v>
-      </c>
-      <c r="C96" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4859193888462858</v>
-      </c>
-      <c r="D96" s="3">
-        <f t="shared" si="0"/>
-        <v>6.0992594322137457</v>
+        <v>6.0993585081688382</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="1"/>
-        <v>3.1719219382006936E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0434534923100484E-2</v>
       </c>
       <c r="F96" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0130360476930145E-2</v>
+      </c>
+      <c r="G96" s="3">
+        <f t="shared" si="9"/>
+        <v>6.101680074510341</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B97" s="7">
+        <f t="shared" si="4"/>
+        <v>87</v>
+      </c>
+      <c r="C97" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6754759919207523</v>
+      </c>
+      <c r="D97" s="3">
         <f t="shared" si="6"/>
-        <v>2.0135917956719318E-2</v>
-      </c>
-      <c r="G96" s="3">
-        <f t="shared" si="2"/>
-        <v>6.101680074510341</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B97" s="9">
-        <f t="shared" si="5"/>
-        <v>87</v>
-      </c>
-      <c r="C97" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4867079030708941</v>
-      </c>
-      <c r="D97" s="3">
-        <f t="shared" si="0"/>
-        <v>6.119395350170465</v>
+        <v>6.1194888403308818</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="1"/>
-        <v>2.9933448440434287E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0410077826134405E-2</v>
       </c>
       <c r="F97" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0123023347840323E-2</v>
+      </c>
+      <c r="G97" s="3">
+        <f t="shared" si="9"/>
+        <v>6.1216800745103415</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B98" s="7">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+      <c r="C98" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6769832231255286</v>
+      </c>
+      <c r="D98" s="3">
         <f t="shared" si="6"/>
-        <v>2.0128267011189749E-2</v>
-      </c>
-      <c r="G97" s="3">
-        <f t="shared" si="2"/>
-        <v>6.1216800745103415</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B98" s="9">
-        <f t="shared" si="5"/>
-        <v>88</v>
-      </c>
-      <c r="C98" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4874522604989244</v>
-      </c>
-      <c r="D98" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1395236171816547</v>
+        <v>6.1396118384610414</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" si="1"/>
-        <v>2.8248719511878863E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0387003795855502E-2</v>
       </c>
       <c r="F98" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0116101138756649E-2</v>
+      </c>
+      <c r="G98" s="3">
+        <f t="shared" si="9"/>
+        <v>6.141680074510341</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B99" s="7">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="C99" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6784062295901752</v>
+      </c>
+      <c r="D99" s="3">
         <f t="shared" si="6"/>
-        <v>2.0121048844195855E-2</v>
-      </c>
-      <c r="G98" s="3">
-        <f t="shared" si="2"/>
-        <v>6.141680074510341</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B99" s="9">
-        <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="C99" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4881549339109847</v>
-      </c>
-      <c r="D99" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1596446660258506</v>
+        <v>6.1597279171398025</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="1"/>
-        <v>2.665926031954148E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0365233904068589E-2</v>
       </c>
       <c r="F99" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0109570171220576E-2</v>
+      </c>
+      <c r="G99" s="3">
+        <f t="shared" si="9"/>
+        <v>6.1616800745103415</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B100" s="7">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="C100" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6797497082581585</v>
+      </c>
+      <c r="D100" s="3">
         <f t="shared" si="6"/>
-        <v>2.011423874587237E-2</v>
-      </c>
-      <c r="G99" s="3">
-        <f t="shared" si="2"/>
-        <v>6.1616800745103415</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B100" s="9">
-        <f t="shared" si="5"/>
-        <v>90</v>
-      </c>
-      <c r="C100" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4888182576119697</v>
-      </c>
-      <c r="D100" s="3">
-        <f t="shared" si="0"/>
-        <v>6.179758904771723</v>
+        <v>6.1798374673065233</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="1"/>
-        <v>2.515963436922579E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0344693804910561E-2</v>
       </c>
       <c r="F100" s="3">
+        <f t="shared" si="8"/>
+        <v>2.010340814147317E-2</v>
+      </c>
+      <c r="G100" s="3">
+        <f t="shared" si="9"/>
+        <v>6.1816800745103411</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B101" s="7">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="C101" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6810180951862166</v>
+      </c>
+      <c r="D101" s="3">
         <f t="shared" si="6"/>
-        <v>2.0107813442273859E-2</v>
-      </c>
-      <c r="G100" s="3">
-        <f t="shared" si="2"/>
-        <v>6.1816800745103411</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B101" s="9">
-        <f t="shared" si="5"/>
-        <v>91</v>
-      </c>
-      <c r="C101" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4894444351856992</v>
-      </c>
-      <c r="D101" s="3">
-        <f t="shared" si="0"/>
-        <v>6.1998667182139968</v>
+        <v>6.1999408576300183</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="1"/>
-        <v>2.3744720759623792E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0325313460306341E-2</v>
       </c>
       <c r="F101" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0097594038091901E-2</v>
+      </c>
+      <c r="G101" s="3">
+        <f t="shared" si="9"/>
+        <v>6.2016800745103415</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B102" s="7">
+        <f t="shared" si="4"/>
+        <v>92</v>
+      </c>
+      <c r="C102" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6822155799202116</v>
+      </c>
+      <c r="D102" s="3">
         <f t="shared" si="6"/>
-        <v>2.0101751009200974E-2</v>
-      </c>
-      <c r="G101" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2016800745103415</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B102" s="9">
-        <f t="shared" si="5"/>
-        <v>92</v>
-      </c>
-      <c r="C102" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4900355468153004</v>
-      </c>
-      <c r="D102" s="3">
-        <f t="shared" si="0"/>
-        <v>6.2199684692231978</v>
+        <v>6.2200384357972247</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" si="1"/>
-        <v>2.2409695277517282E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0307026882793062E-2</v>
       </c>
       <c r="F102" s="3">
+        <f t="shared" si="8"/>
+        <v>2.0092108064837917E-2</v>
+      </c>
+      <c r="G102" s="3">
+        <f t="shared" si="9"/>
+        <v>6.2216800745103411</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B103" s="7">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="C103" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6833461190914862</v>
+      </c>
+      <c r="D103" s="3">
         <f t="shared" si="6"/>
-        <v>2.009603079148814E-2</v>
-      </c>
-      <c r="G102" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2216800745103411</v>
-      </c>
-    </row>
-    <row r="103" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B103" s="9">
-        <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="C103" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4905935561936436</v>
-      </c>
-      <c r="D103" s="3">
-        <f t="shared" si="0"/>
-        <v>6.2400645000146859</v>
+        <v>6.2401305297251302</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="1"/>
-        <v>2.1150012688581511E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0289771894516301E-2</v>
       </c>
       <c r="F103" s="3">
+        <f t="shared" si="8"/>
+        <v>2.008693156835489E-2</v>
+      </c>
+      <c r="G103" s="3">
+        <f t="shared" si="9"/>
+        <v>6.2416800745103416</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" ht="13" x14ac:dyDescent="0.15">
+      <c r="B104" s="7">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="C104" s="3">
+        <f t="shared" si="10"/>
+        <v>3.6844134492745746</v>
+      </c>
+      <c r="D104" s="3">
         <f t="shared" si="6"/>
-        <v>2.0090633327379592E-2</v>
-      </c>
-      <c r="G103" s="3">
-        <f t="shared" si="2"/>
-        <v>6.2416800745103416</v>
-      </c>
-    </row>
-    <row r="104" spans="2:7" ht="13" x14ac:dyDescent="0.15">
-      <c r="B104" s="9">
-        <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="C104" s="3">
-        <f t="shared" si="3"/>
-        <v>2.4911203170467999</v>
-      </c>
-      <c r="D104" s="3">
-        <f t="shared" si="0"/>
-        <v>6.2601551333420655</v>
+        <v>6.2602174487007547</v>
       </c>
       <c r="E104" s="3">
-        <f t="shared" si="1"/>
-        <v>1.9961390141472763E-4</v>
+        <f t="shared" si="7"/>
+        <v>3.0273489901294109E-2</v>
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>6.2616800745103411</v>
       </c>
     </row>
